--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c070270763eebee/Pulpit/mało ważne rzeczy/tableReader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8E3B7AA01A6BB00F62355476585DCE3A874BB6B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8E3B7AA01A6BB00F62355476585DCE3A874BB6B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6FFE22-71F6-4ED9-BEF2-8982C0BB7922}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1344,11 +1344,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c070270763eebee/Pulpit/mało ważne rzeczy/tableReader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8E3B7AA01A6BB00F62355476585DCE3A874BB6B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6FFE22-71F6-4ED9-BEF2-8982C0BB7922}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9527F78E1B5C900E62355476585DCE3A874B60CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F822D43-4538-4811-8383-3E26B0B6CEA6}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2388" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="447">
   <si>
     <t>l.p</t>
   </si>
@@ -52,931 +52,1313 @@
     <t>uwagi</t>
   </si>
   <si>
-    <t>129108</t>
-  </si>
-  <si>
-    <t>1335.00.01_#6</t>
+    <t>145416</t>
+  </si>
+  <si>
+    <t>4473.00.02_#4_S235</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Szt.</t>
+  </si>
+  <si>
+    <t>0,85</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>38227</t>
+  </si>
+  <si>
+    <t>145417</t>
+  </si>
+  <si>
+    <t>4473.00.15_#5_S235</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1,91</t>
+  </si>
+  <si>
+    <t>28,65</t>
+  </si>
+  <si>
+    <t>145418</t>
+  </si>
+  <si>
+    <t>4473.00.18_#4_S235</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0,83</t>
+  </si>
+  <si>
+    <t>24,90</t>
+  </si>
+  <si>
+    <t>38228</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22,92</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19,92</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13,60</t>
+  </si>
+  <si>
+    <t>38229</t>
+  </si>
+  <si>
+    <t>30,56</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26,56</t>
+  </si>
+  <si>
+    <t>38230</t>
+  </si>
+  <si>
+    <t>145431</t>
+  </si>
+  <si>
+    <t>4473.00.16_#3_S235</t>
+  </si>
+  <si>
+    <t>2,82</t>
+  </si>
+  <si>
+    <t>45,12</t>
+  </si>
+  <si>
+    <t>145478</t>
+  </si>
+  <si>
+    <t>KOMPLET BLACH DO INDEKSU 145476</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>380,00</t>
+  </si>
+  <si>
+    <t>1900,00</t>
+  </si>
+  <si>
+    <t>38231</t>
+  </si>
+  <si>
+    <t>145485</t>
+  </si>
+  <si>
+    <t>KOMPLET BLACH DO INDEKSU 144675</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>460,00</t>
+  </si>
+  <si>
+    <t>1380,00</t>
+  </si>
+  <si>
+    <t>38232</t>
+  </si>
+  <si>
+    <t>145486</t>
+  </si>
+  <si>
+    <t>KOMPLET BLACH DO INDE KSU 144664</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1110,00</t>
+  </si>
+  <si>
+    <t>2220,00</t>
+  </si>
+  <si>
+    <t>38233</t>
+  </si>
+  <si>
+    <t>127726</t>
+  </si>
+  <si>
+    <t>0783.00.01_#4_S235</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2,56</t>
+  </si>
+  <si>
+    <t>25,60</t>
+  </si>
+  <si>
+    <t>38234</t>
+  </si>
+  <si>
+    <t>127945</t>
+  </si>
+  <si>
+    <t>0788.00.01_#3_S235</t>
+  </si>
+  <si>
+    <t>0,97</t>
+  </si>
+  <si>
+    <t>9,70</t>
+  </si>
+  <si>
+    <t>38235</t>
+  </si>
+  <si>
+    <t>128998</t>
+  </si>
+  <si>
+    <t>0545.00.05_#2</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>3,73</t>
+  </si>
+  <si>
+    <t>559,50</t>
+  </si>
+  <si>
+    <t>38236</t>
+  </si>
+  <si>
+    <t>132714</t>
+  </si>
+  <si>
+    <t>1374.00.05_#5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Szt.</t>
-  </si>
-  <si>
-    <t>22,69</t>
-  </si>
-  <si>
-    <t>90,76</t>
-  </si>
-  <si>
-    <t>38139</t>
-  </si>
-  <si>
-    <t>129103</t>
-  </si>
-  <si>
-    <t>1335.00.02_#6</t>
+    <t>5,39</t>
+  </si>
+  <si>
+    <t>21,56</t>
+  </si>
+  <si>
+    <t>38237</t>
+  </si>
+  <si>
+    <t>135407</t>
+  </si>
+  <si>
+    <t>1374.00.09_#5</t>
+  </si>
+  <si>
+    <t>19,32</t>
+  </si>
+  <si>
+    <t>77,28</t>
+  </si>
+  <si>
+    <t>132710</t>
+  </si>
+  <si>
+    <t>1374.00.11_#6</t>
+  </si>
+  <si>
+    <t>6,36</t>
+  </si>
+  <si>
+    <t>12,72</t>
+  </si>
+  <si>
+    <t>132716</t>
+  </si>
+  <si>
+    <t>1374.00.15_#5</t>
+  </si>
+  <si>
+    <t>1,89</t>
+  </si>
+  <si>
+    <t>7,56</t>
+  </si>
+  <si>
+    <t>132715</t>
+  </si>
+  <si>
+    <t>1374.00.17_#6</t>
+  </si>
+  <si>
+    <t>2,16</t>
+  </si>
+  <si>
+    <t>8,64</t>
+  </si>
+  <si>
+    <t>132712</t>
+  </si>
+  <si>
+    <t>1374.00.22_#1</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>1,24</t>
+  </si>
+  <si>
+    <t>132711</t>
+  </si>
+  <si>
+    <t>1374.00.23_#6</t>
+  </si>
+  <si>
+    <t>3,39</t>
+  </si>
+  <si>
+    <t>6,78</t>
+  </si>
+  <si>
+    <t>132713</t>
+  </si>
+  <si>
+    <t>1374.00.28_#6</t>
+  </si>
+  <si>
+    <t>7,00</t>
+  </si>
+  <si>
+    <t>14,00</t>
+  </si>
+  <si>
+    <t>132717</t>
+  </si>
+  <si>
+    <t>1374.00.30_#5</t>
+  </si>
+  <si>
+    <t>9,48</t>
+  </si>
+  <si>
+    <t>18,96</t>
+  </si>
+  <si>
+    <t>132718</t>
+  </si>
+  <si>
+    <t>1374.00.31_#5</t>
+  </si>
+  <si>
+    <t>5,61</t>
+  </si>
+  <si>
+    <t>11,22</t>
+  </si>
+  <si>
+    <t>135390</t>
+  </si>
+  <si>
+    <t>1902.00.13_#6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5,32</t>
+  </si>
+  <si>
+    <t>42,56</t>
+  </si>
+  <si>
+    <t>135391</t>
+  </si>
+  <si>
+    <t>1902.00.15_#6_S235</t>
+  </si>
+  <si>
+    <t>135392</t>
+  </si>
+  <si>
+    <t>1902.00.16_#5</t>
+  </si>
+  <si>
+    <t>7,29</t>
+  </si>
+  <si>
+    <t>14,58</t>
+  </si>
+  <si>
+    <t>144912</t>
+  </si>
+  <si>
+    <t>2500.00.09_#8_S235</t>
+  </si>
+  <si>
+    <t>11,38</t>
+  </si>
+  <si>
+    <t>45,52</t>
+  </si>
+  <si>
+    <t>145479</t>
+  </si>
+  <si>
+    <t>4475.00.03_#8_S235</t>
+  </si>
+  <si>
+    <t>16,88</t>
+  </si>
+  <si>
+    <t>270,08</t>
+  </si>
+  <si>
+    <t>144909</t>
+  </si>
+  <si>
+    <t>500.00.42_#8_S235</t>
+  </si>
+  <si>
+    <t>4,96</t>
+  </si>
+  <si>
+    <t>19,84</t>
+  </si>
+  <si>
+    <t>43,12</t>
+  </si>
+  <si>
+    <t>38238</t>
+  </si>
+  <si>
+    <t>154,56</t>
+  </si>
+  <si>
+    <t>25,44</t>
+  </si>
+  <si>
+    <t>15,12</t>
+  </si>
+  <si>
+    <t>17,28</t>
+  </si>
+  <si>
+    <t>2,48</t>
+  </si>
+  <si>
+    <t>13,56</t>
+  </si>
+  <si>
+    <t>28,00</t>
+  </si>
+  <si>
+    <t>37,92</t>
+  </si>
+  <si>
+    <t>22,44</t>
+  </si>
+  <si>
+    <t>85,12</t>
+  </si>
+  <si>
+    <t>29,16</t>
+  </si>
+  <si>
+    <t>91,04</t>
+  </si>
+  <si>
+    <t>145490</t>
+  </si>
+  <si>
+    <t>4475.00.04_#8_S235</t>
+  </si>
+  <si>
+    <t>14,24</t>
+  </si>
+  <si>
+    <t>227,84</t>
+  </si>
+  <si>
+    <t>143918</t>
+  </si>
+  <si>
+    <t>BB1020501.00.01-1_#2_S235</t>
+  </si>
+  <si>
+    <t>20,00</t>
+  </si>
+  <si>
+    <t>120,00</t>
+  </si>
+  <si>
+    <t>38239</t>
+  </si>
+  <si>
+    <t>143919</t>
+  </si>
+  <si>
+    <t>BB1020501.00.02-1_#2_S235</t>
+  </si>
+  <si>
+    <t>12,00</t>
+  </si>
+  <si>
+    <t>144,00</t>
+  </si>
+  <si>
+    <t>143920</t>
+  </si>
+  <si>
+    <t>BB1020501.00.03-1_#2_S235</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>54,00</t>
+  </si>
+  <si>
+    <t>143921</t>
+  </si>
+  <si>
+    <t>BB1020501.00.04-1_#2_S235</t>
+  </si>
+  <si>
+    <t>8,00</t>
+  </si>
+  <si>
+    <t>48,00</t>
+  </si>
+  <si>
+    <t>143922</t>
+  </si>
+  <si>
+    <t>BB1020501.00.09_#4_S235</t>
+  </si>
+  <si>
+    <t>13,50</t>
+  </si>
+  <si>
+    <t>81,00</t>
+  </si>
+  <si>
+    <t>143923</t>
+  </si>
+  <si>
+    <t>BB1020501.00.10_#4_S235</t>
+  </si>
+  <si>
+    <t>84,00</t>
+  </si>
+  <si>
+    <t>143928</t>
+  </si>
+  <si>
+    <t>BB1020512.00.04_#8_S235</t>
+  </si>
+  <si>
+    <t>1,43</t>
+  </si>
+  <si>
+    <t>34,32</t>
+  </si>
+  <si>
+    <t>38240</t>
+  </si>
+  <si>
+    <t>143929</t>
+  </si>
+  <si>
+    <t>BB1020512.00.06_#10_S235</t>
+  </si>
+  <si>
+    <t>0,45</t>
+  </si>
+  <si>
+    <t>10,80</t>
+  </si>
+  <si>
+    <t>135441</t>
+  </si>
+  <si>
+    <t>2067.00.01_#4</t>
+  </si>
+  <si>
+    <t>3,71</t>
+  </si>
+  <si>
+    <t>22,26</t>
+  </si>
+  <si>
+    <t>38241</t>
+  </si>
+  <si>
+    <t>135727</t>
+  </si>
+  <si>
+    <t>2067.00.05_#5</t>
+  </si>
+  <si>
+    <t>2,81</t>
+  </si>
+  <si>
+    <t>33,72</t>
+  </si>
+  <si>
+    <t>139538</t>
+  </si>
+  <si>
+    <t>2093.00.19_#4</t>
   </si>
   <si>
     <t>8,41</t>
   </si>
   <si>
-    <t>33,64</t>
-  </si>
-  <si>
-    <t>129104</t>
-  </si>
-  <si>
-    <t>1335.00.03_#8</t>
-  </si>
-  <si>
-    <t>15,69</t>
-  </si>
-  <si>
-    <t>62,76</t>
-  </si>
-  <si>
-    <t>129105</t>
-  </si>
-  <si>
-    <t>1335.00.04_#8</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>125,52</t>
-  </si>
-  <si>
-    <t>129102</t>
-  </si>
-  <si>
-    <t>1335.00.05_#6</t>
+    <t>50,46</t>
+  </si>
+  <si>
+    <t>145499</t>
+  </si>
+  <si>
+    <t>2500.00.07_#5_S235</t>
+  </si>
+  <si>
+    <t>22,84</t>
+  </si>
+  <si>
+    <t>137,04</t>
+  </si>
+  <si>
+    <t>145500</t>
+  </si>
+  <si>
+    <t>2500.00.08_#5_S235</t>
+  </si>
+  <si>
+    <t>24,13</t>
+  </si>
+  <si>
+    <t>144,78</t>
+  </si>
+  <si>
+    <t>143415</t>
+  </si>
+  <si>
+    <t>2500.00.10_#4_S235</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>7,80</t>
+  </si>
+  <si>
+    <t>139537</t>
+  </si>
+  <si>
+    <t>2549.00.33_#4</t>
+  </si>
+  <si>
+    <t>30,72</t>
+  </si>
+  <si>
+    <t>139539</t>
+  </si>
+  <si>
+    <t>500.00.41_#8</t>
+  </si>
+  <si>
+    <t>5,60</t>
+  </si>
+  <si>
+    <t>134,40</t>
+  </si>
+  <si>
+    <t>128989</t>
+  </si>
+  <si>
+    <t>0545.00.13_#4</t>
+  </si>
+  <si>
+    <t>3,76</t>
+  </si>
+  <si>
+    <t>15,04</t>
+  </si>
+  <si>
+    <t>38242</t>
+  </si>
+  <si>
+    <t>129003</t>
+  </si>
+  <si>
+    <t>0545.00.35_#3</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>47,60</t>
+  </si>
+  <si>
+    <t>130961</t>
+  </si>
+  <si>
+    <t>0867.00.34_#3</t>
+  </si>
+  <si>
+    <t>0,87</t>
+  </si>
+  <si>
+    <t>34,80</t>
+  </si>
+  <si>
+    <t>142917</t>
+  </si>
+  <si>
+    <t>0957.00.40_#6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22,39</t>
+  </si>
+  <si>
+    <t>130291</t>
+  </si>
+  <si>
+    <t>1403.00.04_#6</t>
+  </si>
+  <si>
+    <t>5,92</t>
+  </si>
+  <si>
+    <t>59,20</t>
+  </si>
+  <si>
+    <t>130934</t>
+  </si>
+  <si>
+    <t>1468.00.04_#6</t>
+  </si>
+  <si>
+    <t>10,57</t>
+  </si>
+  <si>
+    <t>105,70</t>
+  </si>
+  <si>
+    <t>130932</t>
+  </si>
+  <si>
+    <t>1468.00.09_#6</t>
+  </si>
+  <si>
+    <t>13,90</t>
+  </si>
+  <si>
+    <t>139,00</t>
+  </si>
+  <si>
+    <t>142904</t>
+  </si>
+  <si>
+    <t>2770.00.05_#4</t>
+  </si>
+  <si>
+    <t>0,95</t>
+  </si>
+  <si>
+    <t>38,00</t>
+  </si>
+  <si>
+    <t>142902</t>
+  </si>
+  <si>
+    <t>2770.00.21_#3</t>
+  </si>
+  <si>
+    <t>1,86</t>
+  </si>
+  <si>
+    <t>44,64</t>
+  </si>
+  <si>
+    <t>142905</t>
+  </si>
+  <si>
+    <t>4154.00.12_#3</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>7,57</t>
+  </si>
+  <si>
+    <t>287,66</t>
+  </si>
+  <si>
+    <t>145480</t>
+  </si>
+  <si>
+    <t>4474.00.03_#6_S235</t>
+  </si>
+  <si>
+    <t>1,42</t>
+  </si>
+  <si>
+    <t>34,08</t>
+  </si>
+  <si>
+    <t>145481</t>
+  </si>
+  <si>
+    <t>4474.00.04_#8_S235</t>
+  </si>
+  <si>
+    <t>6,33</t>
+  </si>
+  <si>
+    <t>75,96</t>
+  </si>
+  <si>
+    <t>145483</t>
+  </si>
+  <si>
+    <t>4474.00.12_#6_S235</t>
+  </si>
+  <si>
+    <t>24,59</t>
+  </si>
+  <si>
+    <t>145482</t>
+  </si>
+  <si>
+    <t>4474.00.19_#8_S235</t>
+  </si>
+  <si>
+    <t>19,52</t>
+  </si>
+  <si>
+    <t>156,16</t>
+  </si>
+  <si>
+    <t>121344</t>
+  </si>
+  <si>
+    <t>500.00.22_BL BELKI 80 #8 M12</t>
+  </si>
+  <si>
+    <t>3,54</t>
+  </si>
+  <si>
+    <t>21,24</t>
+  </si>
+  <si>
+    <t>145487</t>
+  </si>
+  <si>
+    <t>2613.00.22_#6_S235</t>
+  </si>
+  <si>
+    <t>2,39</t>
+  </si>
+  <si>
+    <t>4,78</t>
+  </si>
+  <si>
+    <t>38243</t>
+  </si>
+  <si>
+    <t>145489</t>
+  </si>
+  <si>
+    <t>2613.00.51_#4_S235</t>
+  </si>
+  <si>
+    <t>2,09</t>
+  </si>
+  <si>
+    <t>4,18</t>
+  </si>
+  <si>
+    <t>145488</t>
+  </si>
+  <si>
+    <t>4474.00.14_#3_S235</t>
+  </si>
+  <si>
+    <t>142383</t>
+  </si>
+  <si>
+    <t>VB20304.00.02-A_#2_S235</t>
+  </si>
+  <si>
+    <t>5,51</t>
+  </si>
+  <si>
+    <t>55,10</t>
+  </si>
+  <si>
+    <t>38244</t>
+  </si>
+  <si>
+    <t>142384</t>
+  </si>
+  <si>
+    <t>VB20314.00.03_#6_S235</t>
+  </si>
+  <si>
+    <t>32,87</t>
+  </si>
+  <si>
+    <t>328,70</t>
+  </si>
+  <si>
+    <t>145504</t>
+  </si>
+  <si>
+    <t>4441.00.12_#3_S235</t>
+  </si>
+  <si>
+    <t>0,11</t>
+  </si>
+  <si>
+    <t>0,66</t>
+  </si>
+  <si>
+    <t>38247</t>
+  </si>
+  <si>
+    <t>145505</t>
+  </si>
+  <si>
+    <t>4441.00.13_#2_S235</t>
+  </si>
+  <si>
+    <t>0,22</t>
+  </si>
+  <si>
+    <t>145506</t>
+  </si>
+  <si>
+    <t>4441.00.17_#2_S235</t>
+  </si>
+  <si>
+    <t>10,56</t>
+  </si>
+  <si>
+    <t>21,12</t>
+  </si>
+  <si>
+    <t>145507</t>
+  </si>
+  <si>
+    <t>4441.00.18_#2_S235</t>
+  </si>
+  <si>
+    <t>0,17</t>
+  </si>
+  <si>
+    <t>1,02</t>
+  </si>
+  <si>
+    <t>117990</t>
+  </si>
+  <si>
+    <t>SE90105.00.11_#4_S235</t>
+  </si>
+  <si>
+    <t>2,95</t>
+  </si>
+  <si>
+    <t>17,70</t>
+  </si>
+  <si>
+    <t>38255</t>
+  </si>
+  <si>
+    <t>142795</t>
+  </si>
+  <si>
+    <t>ST_2057200+13+26+39 + 
+2057617+20+46+59_Wandwinkel_S235_#8</t>
+  </si>
+  <si>
+    <t>11,67</t>
+  </si>
+  <si>
+    <t>466,80</t>
+  </si>
+  <si>
+    <t>38257</t>
+  </si>
+  <si>
+    <t>142796</t>
+  </si>
+  <si>
+    <t>ST_2057226+39 + 2057646+59_Wandplatte_S235_#8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12,41</t>
+  </si>
+  <si>
+    <t>248,20</t>
+  </si>
+  <si>
+    <t>120281</t>
+  </si>
+  <si>
+    <t>0729.00.04_#5_S235</t>
+  </si>
+  <si>
+    <t>2,00</t>
+  </si>
+  <si>
+    <t>38258</t>
+  </si>
+  <si>
+    <t>142801</t>
+  </si>
+  <si>
+    <t>ST_Verbindungsblech breit_S235_#6</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
+    <t>22,00</t>
+  </si>
+  <si>
+    <t>142802</t>
+  </si>
+  <si>
+    <t>ST_Verbindungsblech schmal_S235_#6</t>
+  </si>
+  <si>
+    <t>116391</t>
+  </si>
+  <si>
+    <t>3001-01.004_KORBWINKEL_ABWICKLUNG #5 S235</t>
+  </si>
+  <si>
+    <t>4,89</t>
+  </si>
+  <si>
+    <t>97,80</t>
+  </si>
+  <si>
+    <t>38259</t>
+  </si>
+  <si>
+    <t>116273</t>
+  </si>
+  <si>
+    <t>LT-BBHV-KLEMMBLECH #6 S235</t>
+  </si>
+  <si>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>30,00</t>
+  </si>
+  <si>
+    <t>116218</t>
+  </si>
+  <si>
+    <t>LT-BBHV-LASCHE1 #8 S235</t>
+  </si>
+  <si>
+    <t>5,00</t>
+  </si>
+  <si>
+    <t>200,00</t>
+  </si>
+  <si>
+    <t>116266</t>
+  </si>
+  <si>
+    <t>LT-BBHV-LASCHE2 #8 S235</t>
+  </si>
+  <si>
+    <t>6,00</t>
+  </si>
+  <si>
+    <t>240,00</t>
+  </si>
+  <si>
+    <t>116268</t>
+  </si>
+  <si>
+    <t>LT-BBHV-LASCHE3 #8 S235</t>
+  </si>
+  <si>
+    <t>4,50</t>
+  </si>
+  <si>
+    <t>180,00</t>
+  </si>
+  <si>
+    <t>116270</t>
+  </si>
+  <si>
+    <t>LT-BBHV-LASCHE4 #8 S235</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>41,00</t>
+  </si>
+  <si>
+    <t>121334</t>
+  </si>
+  <si>
+    <t>207 4825A_1</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>382,50</t>
+  </si>
+  <si>
+    <t>38260</t>
+  </si>
+  <si>
+    <t>121335</t>
+  </si>
+  <si>
+    <t>207 4825A_2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>11,40</t>
+  </si>
+  <si>
+    <t>285,00</t>
+  </si>
+  <si>
+    <t>121336</t>
+  </si>
+  <si>
+    <t>207 4825A_3</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>95,00</t>
+  </si>
+  <si>
+    <t>121337</t>
+  </si>
+  <si>
+    <t>207 4825A_4</t>
+  </si>
+  <si>
+    <t>348,00</t>
+  </si>
+  <si>
+    <t>121338</t>
+  </si>
+  <si>
+    <t>207 4825A_5</t>
+  </si>
+  <si>
+    <t>5,59</t>
+  </si>
+  <si>
+    <t>27,95</t>
+  </si>
+  <si>
+    <t>121339</t>
+  </si>
+  <si>
+    <t>207 4825A_6</t>
+  </si>
+  <si>
+    <t>2,78</t>
+  </si>
+  <si>
+    <t>27,80</t>
+  </si>
+  <si>
+    <t>124496</t>
+  </si>
+  <si>
+    <t>ST TIEFLADER MF BODENBLECH</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>264,00</t>
+  </si>
+  <si>
+    <t>38261</t>
+  </si>
+  <si>
+    <t>115875</t>
+  </si>
+  <si>
+    <t>126 8629 #6 S235 KONS OLA NAŚCIENNA</t>
+  </si>
+  <si>
+    <t>3,44</t>
+  </si>
+  <si>
+    <t>137,60</t>
+  </si>
+  <si>
+    <t>38262</t>
+  </si>
+  <si>
+    <t>123217</t>
+  </si>
+  <si>
+    <t>115 5709B_1</t>
+  </si>
+  <si>
+    <t>17,00</t>
+  </si>
+  <si>
+    <t>38263</t>
+  </si>
+  <si>
+    <t>127101</t>
+  </si>
+  <si>
+    <t>ST_2708300_Befestigungsblech_S235_#5</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>2,55</t>
   </si>
   <si>
-    <t>20,40</t>
-  </si>
-  <si>
-    <t>129106</t>
-  </si>
-  <si>
-    <t>1335.00.13_#2</t>
-  </si>
-  <si>
-    <t>0,99</t>
-  </si>
-  <si>
-    <t>3,96</t>
-  </si>
-  <si>
-    <t>130905</t>
-  </si>
-  <si>
-    <t>1471.00.16_#5</t>
-  </si>
-  <si>
-    <t>10,02</t>
-  </si>
-  <si>
-    <t>80,16</t>
+    <t>255,00</t>
+  </si>
+  <si>
+    <t>38264</t>
+  </si>
+  <si>
+    <t>127102</t>
+  </si>
+  <si>
+    <t>ST_2708300_Blech_fuer_Dorn_S235_#6</t>
+  </si>
+  <si>
+    <t>1,63</t>
+  </si>
+  <si>
+    <t>163,00</t>
   </si>
   <si>
     <t>130909</t>
   </si>
   <si>
-    <t>ST_1501982_Boxen -Platte _S235_#3</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>ST_1501982_Boxen-Platte_S235_#3</t>
   </si>
   <si>
     <t>11,90</t>
   </si>
   <si>
-    <t>38162</t>
-  </si>
-  <si>
-    <t>116605</t>
-  </si>
-  <si>
-    <t>196.00.53_#2_S235_ KOSZYKÓWKA VARIO</t>
-  </si>
-  <si>
-    <t>2,56</t>
-  </si>
-  <si>
-    <t>38163</t>
-  </si>
-  <si>
-    <t>116607</t>
-  </si>
-  <si>
-    <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
-  </si>
-  <si>
-    <t>0,75</t>
-  </si>
-  <si>
-    <t>196.00.54_#3_S235_ KOSZYKÓWKA VA RIO</t>
-  </si>
-  <si>
-    <t>38164</t>
-  </si>
-  <si>
-    <t>118083</t>
-  </si>
-  <si>
-    <t>0603.00.01 #5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14,73</t>
-  </si>
-  <si>
-    <t>73,65</t>
-  </si>
-  <si>
-    <t>38166</t>
-  </si>
-  <si>
-    <t>139086</t>
-  </si>
-  <si>
-    <t>BB1020506.00.04_#5</t>
-  </si>
-  <si>
-    <t>4,20</t>
-  </si>
-  <si>
-    <t>16,80</t>
-  </si>
-  <si>
-    <t>38167</t>
-  </si>
-  <si>
-    <t>138999</t>
-  </si>
-  <si>
-    <t>SE90202.00.01 -3_#5</t>
-  </si>
-  <si>
-    <t>22,85</t>
-  </si>
-  <si>
-    <t>91,40</t>
-  </si>
-  <si>
-    <t>38168</t>
-  </si>
-  <si>
-    <t>142781</t>
-  </si>
-  <si>
-    <t>BLACH DO INDEKSU 113805 KPL</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>115,50</t>
-  </si>
-  <si>
-    <t>231,00</t>
-  </si>
-  <si>
-    <t>38171</t>
-  </si>
-  <si>
-    <t>142297</t>
-  </si>
-  <si>
-    <t>ST_Trompetenaufnahme_st235_#4</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>12,37</t>
-  </si>
-  <si>
-    <t>371,10</t>
-  </si>
-  <si>
-    <t>38174</t>
-  </si>
-  <si>
-    <t>145244</t>
-  </si>
-  <si>
-    <t>4321.00.10_#4_S235</t>
-  </si>
-  <si>
-    <t>2,71</t>
-  </si>
-  <si>
-    <t>5,42</t>
-  </si>
-  <si>
-    <t>38176</t>
-  </si>
-  <si>
-    <t>145440</t>
-  </si>
-  <si>
-    <t>4321.00.11_#4_S235</t>
-  </si>
-  <si>
-    <t>4,38</t>
-  </si>
-  <si>
-    <t>8,76</t>
-  </si>
-  <si>
-    <t>145441</t>
-  </si>
-  <si>
-    <t>4321.00.12_#4_S235</t>
-  </si>
-  <si>
-    <t>2,26</t>
-  </si>
-  <si>
-    <t>9,04</t>
-  </si>
-  <si>
-    <t>145442</t>
-  </si>
-  <si>
-    <t>4321.00.13_#5_S235</t>
-  </si>
-  <si>
-    <t>2,36</t>
-  </si>
-  <si>
-    <t>4,72</t>
-  </si>
-  <si>
-    <t>145443</t>
-  </si>
-  <si>
-    <t>4321.00.14-A_#3_S235</t>
-  </si>
-  <si>
-    <t>7,21</t>
-  </si>
-  <si>
-    <t>28,84</t>
-  </si>
-  <si>
-    <t>145444</t>
-  </si>
-  <si>
-    <t>4321.00.15_#3_S235</t>
-  </si>
-  <si>
-    <t>0,72</t>
-  </si>
-  <si>
-    <t>2,88</t>
-  </si>
-  <si>
-    <t>145273</t>
-  </si>
-  <si>
-    <t>4321.00.18_#4_S235</t>
-  </si>
-  <si>
-    <t>0,80</t>
-  </si>
-  <si>
-    <t>140771</t>
-  </si>
-  <si>
-    <t>9009.00.02_#8</t>
-  </si>
-  <si>
-    <t>12,08</t>
-  </si>
-  <si>
-    <t>24,16</t>
-  </si>
-  <si>
-    <t>145449</t>
-  </si>
-  <si>
-    <t>4535.00.03_#6_S235</t>
-  </si>
-  <si>
-    <t>11,30</t>
-  </si>
-  <si>
-    <t>38186</t>
-  </si>
-  <si>
-    <t>145450</t>
-  </si>
-  <si>
-    <t>4535.00.04_#6_S235</t>
-  </si>
-  <si>
-    <t>2,83</t>
-  </si>
-  <si>
-    <t>5,66</t>
-  </si>
-  <si>
-    <t>145451</t>
-  </si>
-  <si>
-    <t>4535.00.05_#6_S235</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2,16</t>
-  </si>
-  <si>
-    <t>145452</t>
-  </si>
-  <si>
-    <t>4536.00.02_#5_S235</t>
-  </si>
-  <si>
-    <t>10,78</t>
-  </si>
-  <si>
-    <t>43,12</t>
-  </si>
-  <si>
-    <t>38187</t>
-  </si>
-  <si>
-    <t>145453</t>
-  </si>
-  <si>
-    <t>4536.00.03_#8_S235</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1,81</t>
-  </si>
-  <si>
-    <t>21,72</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>150,92</t>
-  </si>
-  <si>
-    <t>38188</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>76,02</t>
-  </si>
-  <si>
-    <t>119055</t>
-  </si>
-  <si>
-    <t>407.00.01_#6_ZASTRZAŁ MINI BRAMKI</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>10,50</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>38193</t>
-  </si>
-  <si>
-    <t>119056</t>
-  </si>
-  <si>
-    <t>407.00.09_#6</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>2,84</t>
-  </si>
-  <si>
-    <t>284,00</t>
-  </si>
-  <si>
-    <t>38194</t>
-  </si>
-  <si>
-    <t>120003</t>
-  </si>
-  <si>
-    <t>407.00.10</t>
-  </si>
-  <si>
-    <t>2,78</t>
-  </si>
-  <si>
-    <t>278,00</t>
-  </si>
-  <si>
-    <t>140566</t>
-  </si>
-  <si>
-    <t>GM7031226.00.01 -180_ #6</t>
-  </si>
-  <si>
-    <t>9,51</t>
-  </si>
-  <si>
-    <t>114,12</t>
-  </si>
-  <si>
-    <t>38195</t>
-  </si>
-  <si>
-    <t>142291</t>
-  </si>
-  <si>
-    <t>4073.00.01_#10</t>
-  </si>
-  <si>
-    <t>17,80</t>
-  </si>
-  <si>
-    <t>71,20</t>
-  </si>
-  <si>
-    <t>38196</t>
-  </si>
-  <si>
-    <t>145460</t>
-  </si>
-  <si>
-    <t>4543.00.01_#10_S235</t>
-  </si>
-  <si>
-    <t>2,99</t>
-  </si>
-  <si>
-    <t>11,96</t>
-  </si>
-  <si>
-    <t>145466</t>
-  </si>
-  <si>
-    <t>4537.00.03_#8_S235</t>
-  </si>
-  <si>
-    <t>33,91</t>
-  </si>
-  <si>
-    <t>271,28</t>
-  </si>
-  <si>
-    <t>38197</t>
-  </si>
-  <si>
-    <t>145467</t>
-  </si>
-  <si>
-    <t>4544.00.01_#4_S235</t>
-  </si>
-  <si>
-    <t>48,11</t>
-  </si>
-  <si>
-    <t>96,22</t>
-  </si>
-  <si>
-    <t>143252</t>
-  </si>
-  <si>
-    <t>GM70701.00.08-A_Blacha</t>
-  </si>
-  <si>
-    <t>6,45</t>
-  </si>
-  <si>
-    <t>12,90</t>
-  </si>
-  <si>
-    <t>143251</t>
-  </si>
-  <si>
-    <t>GM70701.00.09_Blacha</t>
-  </si>
-  <si>
-    <t>3,16</t>
-  </si>
-  <si>
-    <t>6,32</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>542,56</t>
-  </si>
-  <si>
-    <t>38199</t>
-  </si>
-  <si>
-    <t>145469</t>
-  </si>
-  <si>
-    <t>4537.00.04_#8_S235</t>
-  </si>
-  <si>
-    <t>5,27</t>
-  </si>
-  <si>
-    <t>42,16</t>
-  </si>
-  <si>
-    <t>145463</t>
-  </si>
-  <si>
-    <t>4550.00.01_#6_S235</t>
-  </si>
-  <si>
-    <t>17,56</t>
-  </si>
-  <si>
-    <t>52,68</t>
-  </si>
-  <si>
-    <t>38200</t>
-  </si>
-  <si>
-    <t>145464</t>
-  </si>
-  <si>
-    <t>4550.00.02_#8_S235</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8,99</t>
-  </si>
-  <si>
-    <t>53,94</t>
-  </si>
-  <si>
-    <t>145465</t>
-  </si>
-  <si>
-    <t>4550.00.03_#8_S235</t>
-  </si>
-  <si>
-    <t>1,18</t>
-  </si>
-  <si>
-    <t>7,08</t>
-  </si>
-  <si>
-    <t>143663</t>
-  </si>
-  <si>
-    <t>GM70100.00.03-A_#5_S235</t>
-  </si>
-  <si>
-    <t>19,55</t>
-  </si>
-  <si>
-    <t>58,65</t>
-  </si>
-  <si>
-    <t>35,12</t>
-  </si>
-  <si>
-    <t>38201</t>
-  </si>
-  <si>
-    <t>35,96</t>
-  </si>
-  <si>
-    <t>39,10</t>
-  </si>
-  <si>
-    <t>17,98</t>
-  </si>
-  <si>
-    <t>38202</t>
-  </si>
-  <si>
-    <t>145468</t>
-  </si>
-  <si>
-    <t>4550.00.07_#10_S235</t>
-  </si>
-  <si>
-    <t>28,74</t>
-  </si>
-  <si>
-    <t>140927</t>
-  </si>
-  <si>
-    <t>2834.00.01_#5</t>
-  </si>
-  <si>
-    <t>17,92</t>
-  </si>
-  <si>
-    <t>35,84</t>
-  </si>
-  <si>
-    <t>38203</t>
-  </si>
-  <si>
-    <t>145470</t>
-  </si>
-  <si>
-    <t>4550.00.04_#6_S235</t>
-  </si>
-  <si>
-    <t>14,05</t>
-  </si>
-  <si>
-    <t>38204</t>
-  </si>
-  <si>
-    <t>145471</t>
-  </si>
-  <si>
-    <t>4550.00.05_#8_S235</t>
-  </si>
-  <si>
-    <t>7,12</t>
-  </si>
-  <si>
-    <t>14,24</t>
-  </si>
-  <si>
-    <t>145472</t>
-  </si>
-  <si>
-    <t>4550.00.06_#8_S235</t>
-  </si>
-  <si>
-    <t>0,94</t>
-  </si>
-  <si>
-    <t>1,88</t>
-  </si>
-  <si>
-    <t>143927</t>
-  </si>
-  <si>
-    <t>GM70100.00.01-2_#6_S235</t>
-  </si>
-  <si>
-    <t>17,52</t>
-  </si>
-  <si>
-    <t>139276</t>
-  </si>
-  <si>
-    <t>BB1010000.00.01_#6_S235</t>
-  </si>
-  <si>
-    <t>27,71</t>
-  </si>
-  <si>
-    <t>221,68</t>
-  </si>
-  <si>
-    <t>38206</t>
-  </si>
-  <si>
-    <t>142495</t>
-  </si>
-  <si>
-    <t>BB1010300.00.10_#4_S235</t>
-  </si>
-  <si>
-    <t>1,75</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>142496</t>
-  </si>
-  <si>
-    <t>BB1010300.00.11_#5_S235</t>
-  </si>
-  <si>
-    <t>1,89</t>
-  </si>
-  <si>
-    <t>7,56</t>
-  </si>
-  <si>
-    <t>142494</t>
-  </si>
-  <si>
-    <t>BB1010300.00.13_#4_S235</t>
-  </si>
-  <si>
-    <t>2,57</t>
-  </si>
-  <si>
-    <t>10,28</t>
-  </si>
-  <si>
-    <t>110,84</t>
-  </si>
-  <si>
-    <t>38207</t>
-  </si>
-  <si>
-    <t>3,50</t>
-  </si>
-  <si>
-    <t>3,78</t>
-  </si>
-  <si>
-    <t>5,14</t>
-  </si>
-  <si>
-    <t>143015</t>
-  </si>
-  <si>
-    <t>BB1010000.00.04_#6_S235</t>
-  </si>
-  <si>
-    <t>3,56</t>
-  </si>
-  <si>
-    <t>38209</t>
-  </si>
-  <si>
-    <t>143649</t>
-  </si>
-  <si>
-    <t>BB1020521.00.05-A_#8_S235</t>
-  </si>
-  <si>
-    <t>6,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>139388</t>
-  </si>
-  <si>
-    <t>BB1020521.00.13-B v2_#10_S235</t>
-  </si>
-  <si>
-    <t>23,04</t>
-  </si>
-  <si>
-    <t>143650</t>
-  </si>
-  <si>
-    <t>BB1020521.00.19_#6_S235</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>143652</t>
-  </si>
-  <si>
-    <t>BB1020521.00.22-A_#3_S235</t>
-  </si>
-  <si>
-    <t>2,21</t>
-  </si>
-  <si>
-    <t>4,42</t>
-  </si>
-  <si>
-    <t>143653</t>
-  </si>
-  <si>
-    <t>BB1020521.00.23_#6_S235</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>143654</t>
-  </si>
-  <si>
-    <t>BB1020521.00.26_#8_S235</t>
-  </si>
-  <si>
-    <t>143655</t>
-  </si>
-  <si>
-    <t>BB1020521.00.27-A_#5_S235</t>
-  </si>
-  <si>
-    <t>4,80</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>145474</t>
-  </si>
-  <si>
-    <t>4539.00.03_#8_S235</t>
-  </si>
-  <si>
-    <t>12,89</t>
-  </si>
-  <si>
-    <t>77,34</t>
-  </si>
-  <si>
-    <t>38212</t>
-  </si>
-  <si>
-    <t>145475</t>
-  </si>
-  <si>
-    <t>4539.00.04_#8_S235</t>
-  </si>
-  <si>
-    <t>7,26</t>
-  </si>
-  <si>
-    <t>58,08</t>
-  </si>
-  <si>
-    <t>38213</t>
-  </si>
-  <si>
-    <t>38214</t>
-  </si>
-  <si>
-    <t>38215</t>
-  </si>
-  <si>
-    <t>143011</t>
-  </si>
-  <si>
-    <t>BB1010500.00.01-01_#5</t>
-  </si>
-  <si>
-    <t>25,67</t>
-  </si>
-  <si>
-    <t>102,68</t>
-  </si>
-  <si>
-    <t>143012</t>
-  </si>
-  <si>
-    <t>BB1010500.00.02-01_#5</t>
-  </si>
-  <si>
-    <t>24,88</t>
-  </si>
-  <si>
-    <t>99,52</t>
-  </si>
-  <si>
-    <t>144158</t>
-  </si>
-  <si>
-    <t>BB1010500.00.06_#5_S235</t>
-  </si>
-  <si>
-    <t>35,95</t>
-  </si>
-  <si>
-    <t>143,80</t>
-  </si>
-  <si>
-    <t>143014</t>
-  </si>
-  <si>
-    <t>BB1020507.00.04_#3_S235</t>
-  </si>
-  <si>
-    <t>1,20</t>
+    <t>59,50</t>
+  </si>
+  <si>
+    <t>38268</t>
+  </si>
+  <si>
+    <t>130910</t>
+  </si>
+  <si>
+    <t>ST_1501982_Platte_1_S235_#6</t>
+  </si>
+  <si>
+    <t>3,49</t>
+  </si>
+  <si>
+    <t>17,45</t>
+  </si>
+  <si>
+    <t>130911</t>
+  </si>
+  <si>
+    <t>ST_1501982_Platte_2_S235_#8</t>
+  </si>
+  <si>
+    <t>6,34</t>
+  </si>
+  <si>
+    <t>31,70</t>
+  </si>
+  <si>
+    <t>130912</t>
+  </si>
+  <si>
+    <t>ST_1501982_Winkel_1_S235_#6</t>
+  </si>
+  <si>
+    <t>25,90</t>
+  </si>
+  <si>
+    <t>129,50</t>
+  </si>
+  <si>
+    <t>130913</t>
+  </si>
+  <si>
+    <t>ST_1501982_Winkel_2_S235_#8</t>
+  </si>
+  <si>
+    <t>9,35</t>
+  </si>
+  <si>
+    <t>93,50</t>
   </si>
   <si>
     <t>KONIEC</t>
@@ -1342,15 +1724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1431,19 +1811,19 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -1457,25 +1837,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -1485,64 +1865,37 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1550,31 +1903,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1582,31 +1935,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1622,452 +1975,452 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2075,31 +2428,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2107,31 +2460,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2139,31 +2492,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2171,68 +2524,95 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2240,31 +2620,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2272,68 +2652,95 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2341,68 +2748,95 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2410,105 +2844,132 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J48" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2516,105 +2977,159 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J49" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="I51" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J52" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="I53" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="J53" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2622,68 +3137,95 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J54" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="J56" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2691,31 +3233,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2723,31 +3265,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="I58" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="J58" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2755,68 +3297,95 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="J59" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" t="s">
+        <v>156</v>
+      </c>
+      <c r="J60" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="J61" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2824,31 +3393,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="I62" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="J62" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2864,28 +3433,28 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="I64" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="J64" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2896,28 +3465,28 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="I65" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2928,28 +3497,28 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="J66" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2960,129 +3529,129 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="I67" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="J67" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>180</v>
+      </c>
+      <c r="I68" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="I69" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="J69" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" t="s">
-        <v>202</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>204</v>
-      </c>
-      <c r="I70" t="s">
-        <v>216</v>
-      </c>
-      <c r="J70" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="J71" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3090,31 +3659,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="J72" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3130,28 +3699,28 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I74" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="J74" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3162,28 +3731,28 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="J75" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3194,102 +3763,156 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I76" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="J76" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I78" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="J78" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>217</v>
+      </c>
+      <c r="I79" t="s">
+        <v>218</v>
+      </c>
+      <c r="J79" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H80" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="I80" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J80" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3297,132 +3920,132 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E81" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I81" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="J81" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" t="s">
-        <v>237</v>
-      </c>
-      <c r="E82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82" t="s">
-        <v>238</v>
-      </c>
-      <c r="I82" t="s">
-        <v>239</v>
-      </c>
-      <c r="J82" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I83" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="J83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>233</v>
+      </c>
+      <c r="H84" t="s">
+        <v>234</v>
+      </c>
+      <c r="I84" t="s">
+        <v>235</v>
+      </c>
+      <c r="J84" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="H85" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I85" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J85" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3430,31 +4053,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="H86" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I86" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J86" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3462,31 +4085,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J87" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3494,68 +4117,95 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H88" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I88" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J88" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>63</v>
+      </c>
+      <c r="H89" t="s">
+        <v>254</v>
+      </c>
+      <c r="I89" t="s">
+        <v>255</v>
+      </c>
+      <c r="J89" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="I90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J90" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3563,31 +4213,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E91" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H91" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J91" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3595,31 +4245,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="I92" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J92" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3627,68 +4277,95 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="I93" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="J93" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>275</v>
+      </c>
+      <c r="I94" t="s">
+        <v>276</v>
+      </c>
+      <c r="J94" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I95" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="J95" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -3696,31 +4373,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="I96" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="J96" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3728,31 +4405,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="J97" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -3760,95 +4437,68 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I98" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="J98" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>279</v>
-      </c>
-      <c r="D99" t="s">
-        <v>280</v>
-      </c>
-      <c r="E99" t="s">
-        <v>73</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" t="s">
-        <v>281</v>
-      </c>
-      <c r="I99" t="s">
-        <v>282</v>
-      </c>
-      <c r="J99" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E100" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I100" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J100" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3856,31 +4506,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E101" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H101" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="I101" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J101" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -3888,31 +4538,31 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H102" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I102" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J102" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -3928,28 +4578,28 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D104" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="H104" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="I104" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="J104" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -3960,28 +4610,28 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D105" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H105" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I105" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="J105" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -3997,28 +4647,28 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="I107" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="J107" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4029,47 +4679,74 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H108" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="I108" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J108" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>316</v>
+      </c>
+      <c r="D109" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" t="s">
+        <v>318</v>
+      </c>
+      <c r="I109" t="s">
+        <v>319</v>
+      </c>
+      <c r="J109" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4081,285 +4758,970 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="I110" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="J110" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D111" t="s">
-        <v>249</v>
-      </c>
-      <c r="E111" t="s">
-        <v>73</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>73</v>
-      </c>
-      <c r="H111" t="s">
-        <v>250</v>
-      </c>
-      <c r="I111" t="s">
-        <v>262</v>
-      </c>
-      <c r="J111" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="I112" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="J112" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s">
-        <v>256</v>
-      </c>
-      <c r="D113" t="s">
-        <v>257</v>
-      </c>
-      <c r="E113" t="s">
-        <v>73</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H113" t="s">
-        <v>258</v>
-      </c>
-      <c r="I113" t="s">
-        <v>264</v>
-      </c>
-      <c r="J113" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>329</v>
+      </c>
+      <c r="D114" t="s">
+        <v>330</v>
+      </c>
+      <c r="E114" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>233</v>
+      </c>
+      <c r="H114" t="s">
+        <v>331</v>
+      </c>
+      <c r="I114" t="s">
+        <v>332</v>
+      </c>
+      <c r="J114" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="H115" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="I115" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="J115" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>304</v>
-      </c>
-      <c r="D116" t="s">
-        <v>305</v>
-      </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>306</v>
-      </c>
-      <c r="I116" t="s">
-        <v>307</v>
-      </c>
-      <c r="J116" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D117" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H117" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="I117" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="J117" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="I118" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="J118" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H119" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="I119" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="J119" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="C120" t="s">
-        <v>319</v>
-      </c>
-      <c r="K120" t="s">
-        <v>319</v>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" t="s">
+        <v>350</v>
+      </c>
+      <c r="E121" t="s">
+        <v>336</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>336</v>
+      </c>
+      <c r="H121" t="s">
+        <v>351</v>
+      </c>
+      <c r="I121" t="s">
+        <v>352</v>
+      </c>
+      <c r="J121" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>354</v>
+      </c>
+      <c r="D122" t="s">
+        <v>355</v>
+      </c>
+      <c r="E122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>63</v>
+      </c>
+      <c r="H122" t="s">
+        <v>356</v>
+      </c>
+      <c r="I122" t="s">
+        <v>357</v>
+      </c>
+      <c r="J122" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" t="s">
+        <v>359</v>
+      </c>
+      <c r="E123" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>233</v>
+      </c>
+      <c r="H123" t="s">
+        <v>360</v>
+      </c>
+      <c r="I123" t="s">
+        <v>361</v>
+      </c>
+      <c r="J123" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>362</v>
+      </c>
+      <c r="D124" t="s">
+        <v>363</v>
+      </c>
+      <c r="E124" t="s">
+        <v>233</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>233</v>
+      </c>
+      <c r="H124" t="s">
+        <v>364</v>
+      </c>
+      <c r="I124" t="s">
+        <v>365</v>
+      </c>
+      <c r="J124" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>366</v>
+      </c>
+      <c r="D125" t="s">
+        <v>367</v>
+      </c>
+      <c r="E125" t="s">
+        <v>233</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>233</v>
+      </c>
+      <c r="H125" t="s">
+        <v>368</v>
+      </c>
+      <c r="I125" t="s">
+        <v>369</v>
+      </c>
+      <c r="J125" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>63</v>
+      </c>
+      <c r="H126" t="s">
+        <v>372</v>
+      </c>
+      <c r="I126" t="s">
+        <v>373</v>
+      </c>
+      <c r="J126" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>374</v>
+      </c>
+      <c r="D128" t="s">
+        <v>375</v>
+      </c>
+      <c r="E128" t="s">
+        <v>376</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>376</v>
+      </c>
+      <c r="H128" t="s">
+        <v>368</v>
+      </c>
+      <c r="I128" t="s">
+        <v>377</v>
+      </c>
+      <c r="J128" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>379</v>
+      </c>
+      <c r="D129" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" t="s">
+        <v>381</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>381</v>
+      </c>
+      <c r="H129" t="s">
+        <v>382</v>
+      </c>
+      <c r="I129" t="s">
+        <v>383</v>
+      </c>
+      <c r="J129" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>384</v>
+      </c>
+      <c r="D130" t="s">
+        <v>385</v>
+      </c>
+      <c r="E130" t="s">
+        <v>386</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>386</v>
+      </c>
+      <c r="H130" t="s">
+        <v>387</v>
+      </c>
+      <c r="I130" t="s">
+        <v>388</v>
+      </c>
+      <c r="J130" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>389</v>
+      </c>
+      <c r="D131" t="s">
+        <v>390</v>
+      </c>
+      <c r="E131" t="s">
+        <v>63</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>63</v>
+      </c>
+      <c r="H131" t="s">
+        <v>239</v>
+      </c>
+      <c r="I131" t="s">
+        <v>391</v>
+      </c>
+      <c r="J131" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" t="s">
+        <v>393</v>
+      </c>
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s">
+        <v>394</v>
+      </c>
+      <c r="I132" t="s">
+        <v>395</v>
+      </c>
+      <c r="J132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" t="s">
+        <v>397</v>
+      </c>
+      <c r="E133" t="s">
+        <v>63</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>63</v>
+      </c>
+      <c r="H133" t="s">
+        <v>398</v>
+      </c>
+      <c r="I133" t="s">
+        <v>399</v>
+      </c>
+      <c r="J133" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" t="s">
+        <v>402</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>402</v>
+      </c>
+      <c r="H135" t="s">
+        <v>403</v>
+      </c>
+      <c r="I135" t="s">
+        <v>404</v>
+      </c>
+      <c r="J135" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" t="s">
+        <v>407</v>
+      </c>
+      <c r="E137" t="s">
+        <v>233</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>233</v>
+      </c>
+      <c r="H137" t="s">
+        <v>408</v>
+      </c>
+      <c r="I137" t="s">
+        <v>409</v>
+      </c>
+      <c r="J137" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>411</v>
+      </c>
+      <c r="D139" t="s">
+        <v>412</v>
+      </c>
+      <c r="E139" t="s">
+        <v>336</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>336</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>413</v>
+      </c>
+      <c r="J139" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>415</v>
+      </c>
+      <c r="D141" t="s">
+        <v>416</v>
+      </c>
+      <c r="E141" t="s">
+        <v>417</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>417</v>
+      </c>
+      <c r="H141" t="s">
+        <v>418</v>
+      </c>
+      <c r="I141" t="s">
+        <v>419</v>
+      </c>
+      <c r="J141" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>421</v>
+      </c>
+      <c r="D142" t="s">
+        <v>422</v>
+      </c>
+      <c r="E142" t="s">
+        <v>417</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>417</v>
+      </c>
+      <c r="H142" t="s">
+        <v>423</v>
+      </c>
+      <c r="I142" t="s">
+        <v>424</v>
+      </c>
+      <c r="J142" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>425</v>
+      </c>
+      <c r="D144" t="s">
+        <v>426</v>
+      </c>
+      <c r="E144" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>45</v>
+      </c>
+      <c r="H144" t="s">
+        <v>427</v>
+      </c>
+      <c r="I144" t="s">
+        <v>428</v>
+      </c>
+      <c r="J144" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>430</v>
+      </c>
+      <c r="D145" t="s">
+        <v>431</v>
+      </c>
+      <c r="E145" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>45</v>
+      </c>
+      <c r="H145" t="s">
+        <v>432</v>
+      </c>
+      <c r="I145" t="s">
+        <v>433</v>
+      </c>
+      <c r="J145" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>434</v>
+      </c>
+      <c r="D146" t="s">
+        <v>435</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146" t="s">
+        <v>436</v>
+      </c>
+      <c r="I146" t="s">
+        <v>437</v>
+      </c>
+      <c r="J146" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>438</v>
+      </c>
+      <c r="D147" t="s">
+        <v>439</v>
+      </c>
+      <c r="E147" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>45</v>
+      </c>
+      <c r="H147" t="s">
+        <v>440</v>
+      </c>
+      <c r="I147" t="s">
+        <v>441</v>
+      </c>
+      <c r="J147" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>442</v>
+      </c>
+      <c r="D148" t="s">
+        <v>443</v>
+      </c>
+      <c r="E148" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>63</v>
+      </c>
+      <c r="H148" t="s">
+        <v>444</v>
+      </c>
+      <c r="I148" t="s">
+        <v>445</v>
+      </c>
+      <c r="J148" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>446</v>
+      </c>
+      <c r="K149" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,17 +494,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>145416</t>
+          <t>129108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4473.00.02_#4_S235</t>
+          <t>1335.00.01_#6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>22,69</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5,10</t>
+          <t>90,76</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>38227</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -543,17 +543,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>145417</t>
+          <t>129103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4473.00.15_#5_S235</t>
+          <t>1335.00.02_#6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,22 +563,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28,65</t>
+          <t>33,64</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>38227</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -592,17 +592,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>145418</t>
+          <t>129104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4473.00.18_#4_S235</t>
+          <t>1335.00.03_#8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>24,90</t>
+          <t>62,76</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>38227</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -636,15 +636,49 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>129105</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1335.00.04_#8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15,69</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>125,52</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>38139</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -652,21 +686,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>145416</t>
+          <t>129102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4473.00.02_#4_S235</t>
+          <t>1335.00.05_#6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -676,22 +710,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5,10</t>
+          <t>20,40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>38228</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -701,21 +735,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>145417</t>
+          <t>129106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4473.00.15_#5_S235</t>
+          <t>1335.00.13_#2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -725,22 +759,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>38228</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -750,21 +784,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>145418</t>
+          <t>130905</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4473.00.18_#4_S235</t>
+          <t>1471.00.16_#5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -774,22 +808,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>19,92</t>
+          <t>80,16</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>38228</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -818,17 +852,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>145416</t>
+          <t>130909</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4473.00.02_#4_S235</t>
+          <t>ST_1501982_Boxen -Platte _S235_#3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -838,22 +872,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>13,60</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>38162</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -862,49 +896,15 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>145417</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4473.00.15_#5_S235</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>30,56</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>38229</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -912,21 +912,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>145418</t>
+          <t>116605</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4473.00.18_#4_S235</t>
+          <t>196.00.53_#2_S235_ KOSZYKÓWKA VARIO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>26,56</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>38163</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -960,64 +960,64 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>116607</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>38163</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>145416</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4473.00.02_#4_S235</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>13,60</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>38230</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1025,21 +1025,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>145417</t>
+          <t>116607</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4473.00.15_#5_S235</t>
+          <t>196.00.54_#3_S235_ KOSZYKÓWKA VA RIO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30,56</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>38230</t>
+          <t>38164</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1073,384 +1073,384 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>145431</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4473.00.16_#3_S235</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>45,12</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>38230</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>118083</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0603.00.01 #5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>14,73</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>73,65</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>38166</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>145478</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>KOMPLET BLACH DO INDEKSU 145476</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>380,00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1900,00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>38231</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>139086</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BB1020506.00.04_#5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4,20</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>16,80</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>38167</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>145485</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KOMPLET BLACH DO INDEKSU 144675</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>460,00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1380,00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>38232</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>138999</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SE90202.00.01 -3_#5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22,85</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>91,40</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>38168</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>145486</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KOMPLET BLACH DO INDE KSU 144664</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1110,00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2220,00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>38233</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>142781</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BLACH DO INDEKSU 113805 KPL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>115,50</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>231,00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>38171</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>127726</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0783.00.01_#4_S235</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>25,60</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>38234</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>142297</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ST_Trompetenaufnahme_st235_#4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>12,37</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>371,10</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>38174</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>127945</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0788.00.01_#3_S235</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>9,70</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>38235</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>145244</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4321.00.10_#4_S235</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>38176</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1458,21 +1458,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>128998</t>
+          <t>145440</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0545.00.05_#2</t>
+          <t>4321.00.11_#4_S235</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1482,22 +1482,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>559,50</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>38236</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1506,15 +1506,49 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>145441</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4321.00.12_#4_S235</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>38176</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1522,21 +1556,21 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>132714</t>
+          <t>145442</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1374.00.05_#5</t>
+          <t>4321.00.13_#5_S235</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1546,22 +1580,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21,56</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1571,16 +1605,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>135407</t>
+          <t>145443</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1374.00.09_#5</t>
+          <t>4321.00.14-A_#3_S235</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1600,17 +1634,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>19,32</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>77,28</t>
+          <t>28,84</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1620,21 +1654,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>132710</t>
+          <t>145444</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1374.00.11_#6</t>
+          <t>4321.00.15_#3_S235</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1644,22 +1678,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -1669,21 +1703,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>132716</t>
+          <t>145273</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1374.00.15_#5</t>
+          <t>4321.00.18_#4_S235</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1693,22 +1727,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1718,21 +1752,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>132715</t>
+          <t>140771</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1374.00.17_#6</t>
+          <t>9009.00.02_#8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1742,22 +1776,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>24,16</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -1766,49 +1800,15 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>6</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>132712</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1374.00.22_#1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>38237</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1816,21 +1816,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>132711</t>
+          <t>145449</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1374.00.23_#6</t>
+          <t>4535.00.03_#6_S235</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1840,22 +1840,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>11,30</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>11,30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -1865,16 +1865,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>132713</t>
+          <t>145450</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1374.00.28_#6</t>
+          <t>4535.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -1914,21 +1914,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>132717</t>
+          <t>145451</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1374.00.30_#5</t>
+          <t>4535.00.05_#6_S235</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1938,22 +1938,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -1962,49 +1962,15 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>132718</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1374.00.31_#5</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>38237</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2012,21 +1978,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>135390</t>
+          <t>145452</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1902.00.13_#6</t>
+          <t>4536.00.02_#5_S235</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2036,22 +2002,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>42,56</t>
+          <t>43,12</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38187</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2061,21 +2027,21 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>135391</t>
+          <t>145453</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1902.00.15_#6_S235</t>
+          <t>4536.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2085,22 +2051,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>21,72</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38187</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2109,49 +2075,15 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>13</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>135392</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1902.00.16_#5</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>14,58</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>38237</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2159,21 +2091,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>144912</t>
+          <t>145452</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2500.00.09_#8_S235</t>
+          <t>4536.00.02_#5_S235</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2183,22 +2115,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>45,52</t>
+          <t>150,92</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38188</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2208,21 +2140,21 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>145479</t>
+          <t>145453</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4475.00.03_#8_S235</t>
+          <t>4536.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2232,22 +2164,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>270,08</t>
+          <t>76,02</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>38237</t>
+          <t>38188</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2256,113 +2188,79 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>16</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>144909</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>500.00.42_#8_S235</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>19,84</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>38237</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>119055</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>407.00.01_#6_ZASTRZAŁ MINI BRAMKI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>10,50</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>630,00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>38193</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>132714</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1374.00.05_#5</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>5,39</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>43,12</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>38238</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2370,21 +2268,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>135407</t>
+          <t>119056</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1374.00.09_#5</t>
+          <t>407.00.09_#6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2394,22 +2292,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>19,32</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>154,56</t>
+          <t>284,00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38194</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2419,21 +2317,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>132710</t>
+          <t>120003</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1374.00.11_#6</t>
+          <t>407.00.10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2443,22 +2341,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>25,44</t>
+          <t>278,00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38194</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2467,49 +2365,15 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>4</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>132716</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1374.00.15_#5</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>15,12</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>38238</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2517,21 +2381,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>132715</t>
+          <t>140566</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1374.00.17_#6</t>
+          <t>GM7031226.00.01 -180_ #6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2541,22 +2405,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>114,12</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38195</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2565,49 +2429,15 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>6</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>132712</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1374.00.22_#1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>38238</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2615,16 +2445,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>132711</t>
+          <t>142291</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1374.00.23_#6</t>
+          <t>4073.00.01_#10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2644,17 +2474,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>17,80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>71,20</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38196</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -2664,16 +2494,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>132713</t>
+          <t>145460</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1374.00.28_#6</t>
+          <t>4543.00.01_#10_S235</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2693,17 +2523,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38196</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -2712,49 +2542,15 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>9</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>132717</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1374.00.30_#5</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>9,48</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>37,92</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>38238</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2762,21 +2558,21 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>132718</t>
+          <t>145466</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1374.00.31_#5</t>
+          <t>4537.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2786,22 +2582,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>33,91</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>22,44</t>
+          <t>271,28</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -2811,21 +2607,21 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>135390</t>
+          <t>145467</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1902.00.13_#6</t>
+          <t>4544.00.01_#4_S235</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2835,22 +2631,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>48,11</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>85,12</t>
+          <t>96,22</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -2860,21 +2656,21 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>135391</t>
+          <t>143252</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1902.00.15_#6_S235</t>
+          <t>GM70701.00.08-A_Blacha</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2884,22 +2680,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>12,90</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -2909,21 +2705,21 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>135392</t>
+          <t>143251</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1902.00.16_#5</t>
+          <t>GM70701.00.09_Blacha</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2933,22 +2729,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>29,16</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -2957,49 +2753,15 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>14</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>144912</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2500.00.09_#8_S235</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>11,38</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>91,04</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>38238</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -3007,16 +2769,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>145479</t>
+          <t>145466</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4475.00.03_#8_S235</t>
+          <t>4537.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3036,17 +2798,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>33,91</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>270,08</t>
+          <t>542,56</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38199</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3056,21 +2818,21 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>145490</t>
+          <t>145469</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4475.00.04_#8_S235</t>
+          <t>4537.00.04_#8_S235</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3080,22 +2842,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>227,84</t>
+          <t>42,16</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>38238</t>
+          <t>38199</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3124,17 +2886,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>143918</t>
+          <t>145463</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>BB1020501.00.01-1_#2_S235</t>
+          <t>4550.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3144,22 +2906,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>120,00</t>
+          <t>52,68</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>38239</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3173,17 +2935,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>143919</t>
+          <t>145464</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>BB1020501.00.02-1_#2_S235</t>
+          <t>4550.00.02_#8_S235</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3193,22 +2955,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>53,94</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>38239</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3222,12 +2984,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>143920</t>
+          <t>145465</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>BB1020501.00.03-1_#2_S235</t>
+          <t>4550.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3247,17 +3009,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>54,00</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>38239</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3271,17 +3033,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>143921</t>
+          <t>143663</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>BB1020501.00.04-1_#2_S235</t>
+          <t>GM70100.00.03-A_#5_S235</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3291,22 +3053,22 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>58,65</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>38239</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3315,49 +3077,15 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>5</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>143922</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>BB1020501.00.09_#4_S235</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>13,50</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>81,00</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>38239</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -3365,21 +3093,21 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>143923</t>
+          <t>145463</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>BB1020501.00.10_#4_S235</t>
+          <t>4550.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3389,22 +3117,22 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>35,12</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>38239</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3413,15 +3141,49 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>145464</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4550.00.02_#8_S235</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>35,96</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>38201</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3429,21 +3191,21 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>143928</t>
+          <t>145465</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>BB1020512.00.04_#8_S235</t>
+          <t>4550.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3453,22 +3215,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>34,32</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>38240</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3478,21 +3240,21 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>143929</t>
+          <t>143663</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>BB1020512.00.06_#10_S235</t>
+          <t>GM70100.00.03-A_#5_S235</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3502,22 +3264,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10,80</t>
+          <t>39,10</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>38240</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3546,17 +3308,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>135441</t>
+          <t>145464</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2067.00.01_#4</t>
+          <t>4550.00.02_#8_S235</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3566,22 +3328,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>22,26</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>38241</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -3595,17 +3357,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>135727</t>
+          <t>145465</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2067.00.05_#5</t>
+          <t>4550.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3615,22 +3377,22 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>33,72</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>38241</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -3644,17 +3406,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>139538</t>
+          <t>145468</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2093.00.19_#4</t>
+          <t>4550.00.07_#10_S235</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3664,22 +3426,22 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>50,46</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>38241</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -3688,49 +3450,15 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>4</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>145499</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2500.00.07_#5_S235</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>22,84</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>137,04</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>38241</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -3738,21 +3466,21 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>145500</t>
+          <t>140927</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2500.00.08_#5_S235</t>
+          <t>2834.00.01_#5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3762,22 +3490,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>144,78</t>
+          <t>35,84</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>38241</t>
+          <t>38203</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -3786,49 +3514,15 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>6</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>143415</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2500.00.10_#4_S235</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>1,30</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>7,80</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>38241</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3836,21 +3530,21 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>139537</t>
+          <t>145470</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2549.00.33_#4</t>
+          <t>4550.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3860,22 +3554,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>30,72</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>38241</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -3885,21 +3579,21 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>139539</t>
+          <t>145471</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>500.00.41_#8</t>
+          <t>4550.00.05_#8_S235</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3909,22 +3603,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5,60</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>134,40</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>38241</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -3933,15 +3627,49 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>145472</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4550.00.06_#8_S235</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>38204</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3949,21 +3677,21 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>128989</t>
+          <t>143927</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0545.00.13_#4</t>
+          <t>GM70100.00.01-2_#6_S235</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3973,22 +3701,22 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -3997,49 +3725,15 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>2</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>129003</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0545.00.35_#3</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>47,60</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>38242</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -4047,21 +3741,21 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>130961</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0867.00.34_#3</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4071,22 +3765,22 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>34,80</t>
+          <t>221,68</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4096,21 +3790,21 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>142917</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0957.00.40_#6</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4120,22 +3814,22 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4145,21 +3839,21 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>130291</t>
+          <t>142496</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1403.00.04_#6</t>
+          <t>BB1010300.00.11_#5_S235</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4169,22 +3863,22 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>59,20</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4194,21 +3888,21 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>130934</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1468.00.04_#6</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4218,22 +3912,22 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>105,70</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4242,49 +3936,15 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>7</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>130932</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1468.00.09_#6</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>13,90</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>139,00</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>38242</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -4292,21 +3952,21 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>142904</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2770.00.05_#4</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4316,22 +3976,22 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>110,84</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4341,21 +4001,21 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>142902</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2770.00.21_#3</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4365,22 +4025,22 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>44,64</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -4390,21 +4050,21 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>142905</t>
+          <t>142496</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4154.00.12_#3</t>
+          <t>BB1010300.00.11_#5_S235</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4414,22 +4074,22 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>287,66</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4439,21 +4099,21 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>145480</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4474.00.03_#6_S235</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4463,22 +4123,22 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>34,08</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -4487,49 +4147,15 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>12</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>145481</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>4474.00.04_#8_S235</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>75,96</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>38242</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4537,21 +4163,21 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>145483</t>
+          <t>143015</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4474.00.12_#6_S235</t>
+          <t>BB1010000.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4561,22 +4187,22 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>24,59</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>24,59</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -4586,16 +4212,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>145482</t>
+          <t>143649</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4474.00.19_#8_S235</t>
+          <t>BB1020521.00.05-A_#8_S235</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4615,17 +4241,17 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>19,52</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>156,16</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -4635,21 +4261,21 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>145479</t>
+          <t>139388</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4475.00.03_#8_S235</t>
+          <t>BB1020521.00.13-B v2_#10_S235</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4659,22 +4285,22 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>270,08</t>
+          <t>23,04</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -4684,21 +4310,21 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>121344</t>
+          <t>143650</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>500.00.22_BL BELKI 80 #8 M12</t>
+          <t>BB1020521.00.19_#6_S235</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4708,22 +4334,22 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>21,24</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>38242</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -4732,15 +4358,49 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>143652</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BB1020521.00.22-A_#3_S235</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>38209</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4748,16 +4408,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>145487</t>
+          <t>143653</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2613.00.22_#6_S235</t>
+          <t>BB1020521.00.23_#6_S235</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4777,17 +4437,17 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>38243</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -4797,16 +4457,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>145489</t>
+          <t>143654</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2613.00.51_#4_S235</t>
+          <t>BB1020521.00.26_#8_S235</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4826,17 +4486,17 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>38243</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -4846,21 +4506,21 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>145488</t>
+          <t>143655</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4474.00.14_#3_S235</t>
+          <t>BB1020521.00.27-A_#5_S235</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4870,22 +4530,22 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>4,80</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>19,20</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>38243</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -4914,17 +4574,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>142383</t>
+          <t>143015</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VB20304.00.02-A_#2_S235</t>
+          <t>BB1010000.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4934,22 +4594,22 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>55,10</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>38244</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -4963,17 +4623,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>142384</t>
+          <t>143011</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VB20314.00.03_#6_S235</t>
+          <t>BB1010500.00.01-01_#5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4983,22 +4643,22 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>32,87</t>
+          <t>25,67</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>328,70</t>
+          <t>102,68</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>38244</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -5007,15 +4667,49 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>143012</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BB1010500.00.02-01_#5</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>24,88</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>99,52</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>38215</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -5023,21 +4717,21 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>145504</t>
+          <t>144158</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4441.00.12_#3_S235</t>
+          <t>BB1010500.00.06_#5_S235</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5047,22 +4741,22 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>35,95</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>143,80</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>38247</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -5072,21 +4766,21 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>145505</t>
+          <t>143014</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4441.00.13_#2_S235</t>
+          <t>BB1020507.00.04_#3_S235</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5096,22 +4790,22 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>4,80</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>38247</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -5120,49 +4814,15 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>3</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>145506</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>4441.00.17_#2_S235</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>10,56</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>21,12</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>38247</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -5170,16 +4830,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>145507</t>
+          <t>145474</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4441.00.18_#2_S235</t>
+          <t>4539.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5199,17 +4859,17 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>77,34</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>38247</t>
+          <t>38212</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -5218,79 +4878,113 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>145475</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4539.00.04_#8_S235</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>58,08</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>38212</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>117990</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SE90105.00.11_#4_S235</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>17,70</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>38255</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>145474</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4539.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>12,89</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>77,34</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>38213</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -5298,22 +4992,21 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>142795</t>
+          <t>145475</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ST_2057200+13+26+39 + 
-2057617+20+46+59_Wandwinkel_S235_#8</t>
+          <t>4539.00.04_#8_S235</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5323,22 +5016,22 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>466,80</t>
+          <t>58,08</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>38257</t>
+          <t>38213</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -5347,64 +5040,64 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>2</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>142796</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>ST_2057226+39 + 2057646+59_Wandplatte_S235_#8</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>12,41</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>248,20</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>38257</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>139276</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>BB1010000.00.01_#6_S235</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>27,71</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>110,84</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>38214</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -5412,21 +5105,21 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>120281</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0729.00.04_#5_S235</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5436,22 +5129,22 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>38258</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
@@ -5461,21 +5154,21 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>142801</t>
+          <t>142496</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ST_Verbindungsblech breit_S235_#6</t>
+          <t>BB1010300.00.11_#5_S235</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5485,22 +5178,22 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2,20</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>38258</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -5510,21 +5203,21 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>142802</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ST_Verbindungsblech schmal_S235_#6</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5534,22 +5227,22 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2,20</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>38258</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
@@ -5559,7 +5252,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>KONIEC</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
@@ -5567,1258 +5264,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>116391</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>3001-01.004_KORBWINKEL_ABWICKLUNG #5 S235</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>97,80</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>38259</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>116273</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>LT-BBHV-KLEMMBLECH #6 S235</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>30,00</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>38259</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>3</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>116218</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>LT-BBHV-LASCHE1 #8 S235</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>5,00</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>200,00</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>38259</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>116266</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>LT-BBHV-LASCHE2 #8 S235</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>240,00</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>38259</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>116268</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>LT-BBHV-LASCHE3 #8 S235</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>4,50</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>180,00</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>38259</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>6</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>116270</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>LT-BBHV-LASCHE4 #8 S235</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>4,10</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>41,00</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>38259</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>121334</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>207 4825A_1</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>4,50</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>382,50</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>38260</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>121335</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>207 4825A_2</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>11,40</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>285,00</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>38260</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>3</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>121336</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>207 4825A_3</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>1,90</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>95,00</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>38260</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>121337</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>207 4825A_4</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>34,80</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>348,00</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>38260</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>5</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>121338</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>207 4825A_5</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>27,95</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>38260</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>6</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>121339</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>207 4825A_6</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>27,80</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>38260</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>124496</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ST TIEFLADER MF BODENBLECH</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>5,50</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>264,00</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>38261</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>115875</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>126 8629 #6 S235 KONS OLA NAŚCIENNA</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>137,60</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>38262</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>123217</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>115 5709B_1</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>17,00</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>38263</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>127101</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ST_2708300_Befestigungsblech_S235_#5</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>255,00</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>38264</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>127102</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>ST_2708300_Blech_fuer_Dorn_S235_#6</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>163,00</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>38264</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>130909</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>ST_1501982_Boxen-Platte_S235_#3</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>11,90</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>59,50</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>38268</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>130910</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>ST_1501982_Platte_1_S235_#6</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>17,45</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>38268</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>3</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>130911</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>ST_1501982_Platte_2_S235_#8</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>31,70</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>38268</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>4</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>130912</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>ST_1501982_Winkel_1_S235_#6</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>25,90</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>129,50</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>38268</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>5</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>130913</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>ST_1501982_Winkel_2_S235_#8</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>93,50</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>38268</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>145577</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>ST_Blech fr Rollenaufnahme_St235_ #8</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>38273</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>KONIEC</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>KONIEC</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>129108</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1335.00.01_#6</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -519,17 +519,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>90,76</t>
+          <t>110,84</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -543,17 +543,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>129103</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1335.00.02_#6</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,22 +563,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>33,64</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -592,17 +592,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>129104</t>
+          <t>142496</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1335.00.03_#8</t>
+          <t>BB1010300.00.11_#5_S235</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15,69</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>62,76</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>129105</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1335.00.04_#8</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15,69</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>125,52</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -685,49 +685,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>129102</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1335.00.05_#6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>20,40</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>38139</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -735,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>129106</t>
+          <t>138999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1335.00.13_#2</t>
+          <t>SE90202.00.01-3_#5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -764,17 +730,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>22,85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>91,40</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38168</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -783,64 +749,64 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>130905</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1471.00.16_#5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>10,02</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>80,16</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>38139</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>145463</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4550.00.01_#6_S235</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17,56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>35,12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>38201</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -848,21 +814,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>130909</t>
+          <t>145464</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ST_1501982_Boxen -Platte _S235_#3</t>
+          <t>4550.00.02_#8_S235</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -872,22 +838,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11,90</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11,90</t>
+          <t>35,96</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>38162</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -896,15 +862,49 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>145465</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4550.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>38201</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -912,21 +912,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>116605</t>
+          <t>143663</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>196.00.53_#2_S235_ KOSZYKÓWKA VARIO</t>
+          <t>GM70100.00.03-A_#5_S235</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>39,10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38163</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -960,64 +960,64 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>116607</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>38163</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>145452</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4536.00.02_#5_S235</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10,78</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>43,12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>38187</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1025,21 +1025,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>116607</t>
+          <t>145453</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>196.00.54_#3_S235_ KOSZYKÓWKA VA RIO</t>
+          <t>4536.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>21,72</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>38164</t>
+          <t>38187</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1093,17 +1093,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>118083</t>
+          <t>145464</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0603.00.01 #5</t>
+          <t>4550.00.02_#8_S235</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1113,22 +1113,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>73,65</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>38166</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1137,15 +1137,49 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>145465</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4550.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>38202</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1153,21 +1187,21 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>139086</t>
+          <t>145468</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BB1020506.00.04_#5</t>
+          <t>4550.00.07_#10_S235</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1177,22 +1211,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4,20</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16,80</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>38167</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1221,17 +1255,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>138999</t>
+          <t>145449</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SE90202.00.01 -3_#5</t>
+          <t>4535.00.03_#6_S235</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1241,22 +1275,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22,85</t>
+          <t>11,30</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91,40</t>
+          <t>11,30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>38168</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1265,15 +1299,49 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>145450</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4535.00.04_#6_S235</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>38186</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1281,21 +1349,21 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>142781</t>
+          <t>145451</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BLACH DO INDEKSU 113805 KPL</t>
+          <t>4535.00.05_#6_S235</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1305,22 +1373,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>115,50</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>231,00</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>38171</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1349,17 +1417,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>142297</t>
+          <t>116605</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ST_Trompetenaufnahme_st235_#4</t>
+          <t>196.00.53_#2_S235_ KOSZYKÓWKA VARIO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1369,22 +1437,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12,37</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>371,10</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>38174</t>
+          <t>38163</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1393,64 +1461,64 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>116607</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>38163</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>145244</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4321.00.10_#4_S235</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>38176</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1458,16 +1526,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>145440</t>
+          <t>143015</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4321.00.11_#4_S235</t>
+          <t>BB1010000.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1487,17 +1555,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1507,21 +1575,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>145441</t>
+          <t>143649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4321.00.12_#4_S235</t>
+          <t>BB1020521.00.05-A_#8_S235</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1531,22 +1599,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1556,21 +1624,21 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>145442</t>
+          <t>139388</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4321.00.13_#5_S235</t>
+          <t>BB1020521.00.13-B v2_#10_S235</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1580,22 +1648,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>23,04</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1605,21 +1673,21 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>145443</t>
+          <t>143650</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4321.00.14-A_#3_S235</t>
+          <t>BB1020521.00.19_#6_S235</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1629,22 +1697,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>28,84</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1654,21 +1722,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>145444</t>
+          <t>143652</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4321.00.15_#3_S235</t>
+          <t>BB1020521.00.22-A_#3_S235</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1678,22 +1746,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -1703,21 +1771,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>145273</t>
+          <t>143653</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4321.00.18_#4_S235</t>
+          <t>BB1020521.00.23_#6_S235</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1727,22 +1795,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1752,16 +1820,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>140771</t>
+          <t>143654</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9009.00.02_#8</t>
+          <t>BB1020521.00.26_#8_S235</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1781,17 +1849,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>24,16</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -1800,64 +1868,64 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>143655</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BB1020521.00.27-A_#5_S235</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4,80</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19,20</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>38209</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>145449</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4535.00.03_#6_S235</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>11,30</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>11,30</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>38186</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1865,21 +1933,21 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>145450</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4535.00.04_#6_S235</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1889,22 +1957,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>110,84</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>38186</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -1914,21 +1982,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>145451</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4535.00.05_#6_S235</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1938,22 +2006,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>38186</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -1962,15 +2030,49 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>142496</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BB1010300.00.11_#5_S235</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>38207</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1978,21 +2080,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>145452</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4536.00.02_#5_S235</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2002,22 +2104,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>43,12</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>38187</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2026,64 +2128,64 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>145453</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4536.00.03_#8_S235</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>21,72</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>38187</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>145470</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4550.00.04_#6_S235</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>14,05</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>14,05</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>38204</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2091,21 +2193,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>145452</t>
+          <t>145471</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4536.00.02_#5_S235</t>
+          <t>4550.00.05_#8_S235</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2115,22 +2217,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>150,92</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>38188</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2140,21 +2242,21 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>145453</t>
+          <t>145472</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4536.00.03_#8_S235</t>
+          <t>4550.00.06_#8_S235</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2164,22 +2266,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>76,02</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>38188</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2188,79 +2290,113 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>143927</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GM70100.00.01-2_#6_S235</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>17,52</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>17,52</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>38204</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>119055</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>407.00.01_#6_ZASTRZAŁ MINI BRAMKI</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>630,00</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>38193</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>145452</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4536.00.02_#5_S235</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10,78</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>150,92</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>38188</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2268,21 +2404,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>119056</t>
+          <t>145453</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>407.00.09_#6</t>
+          <t>4536.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2292,22 +2428,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>284,00</t>
+          <t>76,02</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>38194</t>
+          <t>38188</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2316,64 +2452,64 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>120003</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>407.00.10</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>278,00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>38194</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>143015</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BB1010000.00.04_#6_S235</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>14,24</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>38215</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2381,21 +2517,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>140566</t>
+          <t>143011</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GM7031226.00.01 -180_ #6</t>
+          <t>BB1010500.00.01-01_#5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2405,22 +2541,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>25,67</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>114,12</t>
+          <t>102,68</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>38195</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2429,15 +2565,49 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>143012</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BB1010500.00.02-01_#5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>24,88</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>99,52</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>38215</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2445,16 +2615,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>142291</t>
+          <t>144158</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4073.00.01_#10</t>
+          <t>BB1010500.00.06_#5_S235</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2474,17 +2644,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>17,80</t>
+          <t>35,95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>71,20</t>
+          <t>143,80</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>38196</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -2494,16 +2664,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>145460</t>
+          <t>143014</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4543.00.01_#10_S235</t>
+          <t>BB1020507.00.04_#3_S235</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2523,17 +2693,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>4,80</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>38196</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -2562,17 +2732,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>145466</t>
+          <t>139086</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4537.00.03_#8_S235</t>
+          <t>BB1020506.00.04_#5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2582,22 +2752,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>33,91</t>
+          <t>4,20</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>271,28</t>
+          <t>16,80</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>38197</t>
+          <t>38167</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -2606,49 +2776,15 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>145467</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>4544.00.01_#4_S235</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>48,11</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>96,22</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>38197</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2656,16 +2792,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>143252</t>
+          <t>140927</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GM70701.00.08-A_Blacha</t>
+          <t>2834.00.01_#5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2685,17 +2821,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>12,90</t>
+          <t>35,84</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>38197</t>
+          <t>38203</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -2704,113 +2840,79 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>4</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>143251</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GM70701.00.09_Blacha</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>38197</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>142297</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ST_Trompetenaufnahme_st235_#4</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>12,37</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>371,10</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>38174</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>145466</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>4537.00.03_#8_S235</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>33,91</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>542,56</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>38199</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2818,21 +2920,21 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>145469</t>
+          <t>119055</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4537.00.04_#8_S235</t>
+          <t>407.00.01_#6_ZASTRZAŁ MINI BRAMKI</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2842,22 +2944,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>42,16</t>
+          <t>630,00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>38199</t>
+          <t>38193</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -2886,17 +2988,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>145463</t>
+          <t>119056</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4550.00.01_#6_S235</t>
+          <t>407.00.09_#6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2906,22 +3008,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>52,68</t>
+          <t>284,00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>38200</t>
+          <t>38194</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -2935,17 +3037,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>145464</t>
+          <t>120003</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4550.00.02_#8_S235</t>
+          <t>407.00.10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2955,22 +3057,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>53,94</t>
+          <t>278,00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>38200</t>
+          <t>38194</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -2979,49 +3081,15 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>3</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>145465</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>4550.00.03_#8_S235</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>38200</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -3029,21 +3097,21 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>143663</t>
+          <t>116607</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>GM70100.00.03-A_#5_S235</t>
+          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3053,22 +3121,22 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>19,55</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>58,65</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>38200</t>
+          <t>38164</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3097,17 +3165,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>145463</t>
+          <t>140566</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4550.00.01_#6_S235</t>
+          <t>GM7031226.00.01-180_#6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3117,22 +3185,22 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>35,12</t>
+          <t>114,12</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>38201</t>
+          <t>38195</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3141,49 +3209,15 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>2</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>145464</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>4550.00.02_#8_S235</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>35,96</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>38201</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3191,21 +3225,21 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>145465</t>
+          <t>130909</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4550.00.03_#8_S235</t>
+          <t>ST_1501982_Boxen-Platte_S235_#3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3215,22 +3249,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>38201</t>
+          <t>38162</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3239,64 +3273,64 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>143663</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GM70100.00.03-A_#5_S235</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>19,55</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>39,10</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>38201</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>145463</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4550.00.01_#6_S235</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>17,56</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>52,68</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>38200</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3304,7 +3338,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3318,7 +3352,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3328,7 +3362,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3338,12 +3372,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>53,94</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>38202</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -3353,7 +3387,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3367,7 +3401,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3377,7 +3411,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3387,12 +3421,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>38202</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -3402,21 +3436,21 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>145468</t>
+          <t>143663</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4550.00.07_#10_S235</t>
+          <t>GM70100.00.03-A_#5_S235</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3426,22 +3460,22 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>28,74</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>28,74</t>
+          <t>58,65</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>38202</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -3470,17 +3504,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>140927</t>
+          <t>118083</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2834.00.01_#5</t>
+          <t>0603.00.01 #5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3490,22 +3524,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>35,84</t>
+          <t>73,65</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>38203</t>
+          <t>38166</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -3534,17 +3568,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>145470</t>
+          <t>145244</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4550.00.04_#6_S235</t>
+          <t>4321.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3554,22 +3588,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>38204</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -3583,12 +3617,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>145471</t>
+          <t>145440</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4550.00.05_#8_S235</t>
+          <t>4321.00.11_#4_S235</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3608,17 +3642,17 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>38204</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -3632,17 +3666,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>145472</t>
+          <t>145441</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4550.00.06_#8_S235</t>
+          <t>4321.00.12_#4_S235</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3652,22 +3686,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>38204</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -3681,17 +3715,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>143927</t>
+          <t>145442</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>GM70100.00.01-2_#6_S235</t>
+          <t>4321.00.13_#5_S235</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3701,22 +3735,22 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>38204</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -3725,15 +3759,49 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>145443</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4321.00.14-A_#3_S235</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>7,21</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>28,84</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>38176</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3741,21 +3809,21 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>139276</t>
+          <t>145444</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BB1010000.00.01_#6_S235</t>
+          <t>4321.00.15_#3_S235</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3765,22 +3833,22 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>27,71</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>221,68</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>38206</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -3790,21 +3858,21 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>142495</t>
+          <t>145273</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BB1010300.00.10_#4_S235</t>
+          <t>4321.00.18_#4_S235</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3814,22 +3882,22 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>38206</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -3839,21 +3907,21 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>142496</t>
+          <t>140771</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BB1010300.00.11_#5_S235</t>
+          <t>9009.00.02_#8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3863,22 +3931,22 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>24,16</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>38206</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -3887,64 +3955,64 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>4</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>142494</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>BB1010300.00.13_#4_S235</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>10,28</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>38206</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>145466</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4537.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>33,91</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>542,56</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>38199</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3952,21 +4020,21 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>139276</t>
+          <t>145469</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>BB1010000.00.01_#6_S235</t>
+          <t>4537.00.04_#8_S235</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3976,22 +4044,22 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>27,71</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>110,84</t>
+          <t>42,16</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>38207</t>
+          <t>38199</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4000,49 +4068,15 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>142495</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>BB1010300.00.10_#4_S235</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>38207</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -4050,21 +4084,21 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>142496</t>
+          <t>129108</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>BB1010300.00.11_#5_S235</t>
+          <t>1335.00.01_#6</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4074,22 +4108,22 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>22,69</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>90,76</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>38207</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4099,21 +4133,21 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>142494</t>
+          <t>129103</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BB1010300.00.13_#4_S235</t>
+          <t>1335.00.02_#6</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4123,22 +4157,22 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>33,64</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>38207</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -4147,15 +4181,49 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>129104</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1335.00.03_#8</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>15,69</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>62,76</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>38139</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4163,21 +4231,21 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>143015</t>
+          <t>129105</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BB1010000.00.04_#6_S235</t>
+          <t>1335.00.04_#8</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4187,22 +4255,22 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>125,52</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -4212,16 +4280,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>143649</t>
+          <t>129102</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>BB1020521.00.05-A_#8_S235</t>
+          <t>1335.00.05_#6</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4241,17 +4309,17 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>20,40</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -4261,21 +4329,21 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>139388</t>
+          <t>129106</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>BB1020521.00.13-B v2_#10_S235</t>
+          <t>1335.00.13_#2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4285,22 +4353,22 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>23,04</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -4310,21 +4378,21 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>143650</t>
+          <t>130905</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BB1020521.00.19_#6_S235</t>
+          <t>1471.00.16_#5</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4334,22 +4402,22 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>80,16</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -4358,49 +4426,15 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>5</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>143652</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>BB1020521.00.22-A_#3_S235</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>38209</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4408,16 +4442,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>143653</t>
+          <t>142781</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BB1020521.00.23_#6_S235</t>
+          <t>KPL BLACH DO INDEKSU 113805</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4437,17 +4471,17 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>115,50</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>231,00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38171</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -4456,49 +4490,15 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>143654</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>BB1020521.00.26_#8_S235</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>38209</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4506,21 +4506,21 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>143655</t>
+          <t>145474</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>BB1020521.00.27-A_#5_S235</t>
+          <t>4539.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4530,22 +4530,22 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>19,20</t>
+          <t>77,34</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38212</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -4554,64 +4554,64 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>145475</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4539.00.04_#8_S235</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>58,08</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>38212</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>143015</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>BB1010000.00.04_#6_S235</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>14,24</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>38215</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4619,21 +4619,21 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>143011</t>
+          <t>145466</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>BB1010500.00.01-01_#5</t>
+          <t>4537.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4643,22 +4643,22 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>25,67</t>
+          <t>33,91</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>102,68</t>
+          <t>271,28</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -4668,21 +4668,21 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>143012</t>
+          <t>145467</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>BB1010500.00.02-01_#5</t>
+          <t>4544.00.01_#4_S235</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4692,22 +4692,22 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>24,88</t>
+          <t>48,11</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>99,52</t>
+          <t>96,22</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -4717,21 +4717,21 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>144158</t>
+          <t>143252</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>BB1010500.00.06_#5_S235</t>
+          <t>GM70701.00.08-A_Blacha</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4741,22 +4741,22 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>35,95</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>143,80</t>
+          <t>12,90</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -4766,21 +4766,21 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>143014</t>
+          <t>143251</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>BB1020507.00.04_#3_S235</t>
+          <t>GM70701.00.09_Blacha</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4790,22 +4790,22 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>38212</t>
+          <t>38213</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>38212</t>
+          <t>38213</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -4947,17 +4947,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>145474</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4539.00.03_#8_S235</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4967,22 +4967,22 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>77,34</t>
+          <t>221,68</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>38213</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -4996,17 +4996,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>145475</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4539.00.04_#8_S235</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5016,22 +5016,22 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>58,08</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>38213</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -5040,15 +5040,49 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>142496</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>BB1010300.00.11_#5_S235</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>38206</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -5056,16 +5090,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>139276</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BB1010000.00.01_#6_S235</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5085,17 +5119,17 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>27,71</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>110,84</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>38214</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -5104,167 +5138,20 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>2</v>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>142495</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>BB1010300.00.10_#4_S235</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>38214</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>142496</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>BB1010300.00.11_#5_S235</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>38214</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>142494</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>BB1010300.00.13_#4_S235</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>38214</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
           <t>KONIEC</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>KONIEC</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>139276</t>
+          <t>129108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BB1010000.00.01_#6_S235</t>
+          <t>1335.00.01_#6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -519,17 +519,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>27,71</t>
+          <t>22,69</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>110,84</t>
+          <t>90,76</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>38214</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -543,17 +543,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>142495</t>
+          <t>129103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BB1010300.00.10_#4_S235</t>
+          <t>1335.00.02_#6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,22 +563,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>33,64</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>38214</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -592,17 +592,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>142496</t>
+          <t>129104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BB1010300.00.11_#5_S235</t>
+          <t>1335.00.03_#8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>62,76</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>38214</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>142494</t>
+          <t>129105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BB1010300.00.13_#4_S235</t>
+          <t>1335.00.04_#8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>125,52</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>38214</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -685,15 +685,49 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>129102</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1335.00.05_#6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20,40</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>38139</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -701,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>138999</t>
+          <t>129106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SE90202.00.01-3_#5</t>
+          <t>1335.00.13_#2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -730,17 +764,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22,85</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91,40</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>38168</t>
+          <t>38139</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -749,64 +783,64 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>130905</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1471.00.16_#5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10,02</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>80,16</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>38139</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>145463</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4550.00.01_#6_S235</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>17,56</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>35,12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>38201</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -814,21 +848,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>145464</t>
+          <t>130909</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4550.00.02_#8_S235</t>
+          <t>ST_1501982_Boxen-Platte_S235_#3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -838,22 +872,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>35,96</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>38201</t>
+          <t>38162</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -862,49 +896,15 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>145465</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4550.00.03_#8_S235</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>38201</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -912,21 +912,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>143663</t>
+          <t>116605</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GM70100.00.03-A_#5_S235</t>
+          <t>196.00.53_#2_S235_ KOSZYKÓWKA VARIO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19,55</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>39,10</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38201</t>
+          <t>38163</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -960,64 +960,64 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>116607</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>38163</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>145452</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4536.00.02_#5_S235</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>43,12</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>38187</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1025,21 +1025,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>145453</t>
+          <t>116607</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4536.00.03_#8_S235</t>
+          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,72</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>38187</t>
+          <t>38164</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1093,17 +1093,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>145464</t>
+          <t>118083</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4550.00.02_#8_S235</t>
+          <t>0603.00.01 #5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1113,22 +1113,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>73,65</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>38202</t>
+          <t>38166</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1137,49 +1137,15 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>145465</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4550.00.03_#8_S235</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>38202</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1187,21 +1153,21 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>145468</t>
+          <t>139086</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4550.00.07_#10_S235</t>
+          <t>BB1020506.00.04_#5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1211,22 +1177,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>28,74</t>
+          <t>4,20</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28,74</t>
+          <t>16,80</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>38202</t>
+          <t>38167</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1255,17 +1221,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>145449</t>
+          <t>138999</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4535.00.03_#6_S235</t>
+          <t>SE90202.00.01-3_#5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1275,22 +1241,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11,30</t>
+          <t>22,85</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11,30</t>
+          <t>91,40</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>38186</t>
+          <t>38168</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1299,49 +1265,15 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>145450</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4535.00.04_#6_S235</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>38186</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1349,21 +1281,21 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>145451</t>
+          <t>142781</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4535.00.05_#6_S235</t>
+          <t>KPL BLACH DO INDEKSU 113805</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1373,22 +1305,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>115,50</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>231,00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>38186</t>
+          <t>38171</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1417,17 +1349,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>116605</t>
+          <t>142297</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>196.00.53_#2_S235_ KOSZYKÓWKA VARIO</t>
+          <t>ST_Trompetenaufnahme_st235_#4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1437,22 +1369,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>371,10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>38163</t>
+          <t>38174</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1461,64 +1393,64 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>116607</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>38163</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>145244</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4321.00.10_#4_S235</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>38176</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1526,16 +1458,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>143015</t>
+          <t>145440</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BB1010000.00.04_#6_S235</t>
+          <t>4321.00.11_#4_S235</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,17 +1487,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1575,21 +1507,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>143649</t>
+          <t>145441</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BB1020521.00.05-A_#8_S235</t>
+          <t>4321.00.12_#4_S235</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1599,22 +1531,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1624,21 +1556,21 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>139388</t>
+          <t>145442</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BB1020521.00.13-B v2_#10_S235</t>
+          <t>4321.00.13_#5_S235</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1648,22 +1580,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>23,04</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1673,21 +1605,21 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>143650</t>
+          <t>145443</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BB1020521.00.19_#6_S235</t>
+          <t>4321.00.14-A_#3_S235</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1697,22 +1629,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>28,84</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1722,21 +1654,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>143652</t>
+          <t>145444</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BB1020521.00.22-A_#3_S235</t>
+          <t>4321.00.15_#3_S235</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1746,22 +1678,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -1771,21 +1703,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>143653</t>
+          <t>145273</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BB1020521.00.23_#6_S235</t>
+          <t>4321.00.18_#4_S235</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1795,22 +1727,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1820,16 +1752,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>143654</t>
+          <t>140771</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BB1020521.00.26_#8_S235</t>
+          <t>9009.00.02_#8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1849,17 +1781,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>24,16</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>38176</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -1868,64 +1800,64 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>8</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>143655</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>BB1020521.00.27-A_#5_S235</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>4,80</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>19,20</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>38209</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>145449</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4535.00.03_#6_S235</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>11,30</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11,30</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>38186</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1933,21 +1865,21 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>139276</t>
+          <t>145450</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BB1010000.00.01_#6_S235</t>
+          <t>4535.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1957,22 +1889,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>27,71</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>110,84</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>38207</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -1982,21 +1914,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>142495</t>
+          <t>145451</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BB1010300.00.10_#4_S235</t>
+          <t>4535.00.05_#6_S235</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2006,22 +1938,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>38207</t>
+          <t>38186</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2030,49 +1962,15 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>142496</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>BB1010300.00.11_#5_S235</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>38207</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2080,21 +1978,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>142494</t>
+          <t>145452</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BB1010300.00.13_#4_S235</t>
+          <t>4536.00.02_#5_S235</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2104,22 +2002,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>43,12</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>38207</t>
+          <t>38187</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2128,64 +2026,64 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>145453</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4536.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>21,72</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>38187</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>145470</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4550.00.04_#6_S235</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>14,05</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>14,05</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>38204</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2193,21 +2091,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>145471</t>
+          <t>145452</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4550.00.05_#8_S235</t>
+          <t>4536.00.02_#5_S235</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2217,22 +2115,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>150,92</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>38204</t>
+          <t>38188</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2242,21 +2140,21 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>145472</t>
+          <t>145453</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4550.00.06_#8_S235</t>
+          <t>4536.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2266,22 +2164,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>76,02</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>38204</t>
+          <t>38188</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2290,113 +2188,79 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>143927</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GM70100.00.01-2_#6_S235</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>17,52</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>17,52</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>38204</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>119055</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>407.00.01_#6_ZASTRZAŁ MINI BRAMKI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>10,50</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>630,00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>38193</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>145452</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4536.00.02_#5_S235</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>150,92</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>38188</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2404,21 +2268,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>145453</t>
+          <t>119056</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4536.00.03_#8_S235</t>
+          <t>407.00.09_#6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2428,22 +2292,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>76,02</t>
+          <t>284,00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>38188</t>
+          <t>38194</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2452,64 +2316,64 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>120003</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>407.00.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>278,00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>38194</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>143015</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>BB1010000.00.04_#6_S235</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>14,24</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>38215</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2517,21 +2381,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>143011</t>
+          <t>140566</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BB1010500.00.01-01_#5</t>
+          <t>GM7031226.00.01-180_#6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2541,22 +2405,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25,67</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>102,68</t>
+          <t>114,12</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38195</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2565,49 +2429,15 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>143012</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>BB1010500.00.02-01_#5</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>24,88</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>99,52</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>38215</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2615,16 +2445,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>144158</t>
+          <t>142291</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>BB1010500.00.06_#5_S235</t>
+          <t>4073.00.01_#10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2644,17 +2474,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>35,95</t>
+          <t>17,80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>143,80</t>
+          <t>71,20</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38196</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -2664,16 +2494,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>143014</t>
+          <t>145460</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>BB1020507.00.04_#3_S235</t>
+          <t>4543.00.01_#10_S235</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2693,17 +2523,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4,80</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>38196</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -2732,17 +2562,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>139086</t>
+          <t>145466</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BB1020506.00.04_#5</t>
+          <t>4537.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2752,22 +2582,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4,20</t>
+          <t>33,91</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>16,80</t>
+          <t>271,28</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>38167</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -2776,15 +2606,49 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>145467</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4544.00.01_#4_S235</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>48,11</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>96,22</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>38197</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2792,16 +2656,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>140927</t>
+          <t>143252</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2834.00.01_#5</t>
+          <t>GM70701.00.08-A_Blacha</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2821,17 +2685,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>35,84</t>
+          <t>12,90</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>38203</t>
+          <t>38197</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -2840,79 +2704,113 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>143251</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GM70701.00.09_Blacha</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>38197</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>142297</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>ST_Trompetenaufnahme_st235_#4</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>12,37</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>371,10</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>38174</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>145466</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4537.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>33,91</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>542,56</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>38199</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2920,21 +2818,21 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>119055</t>
+          <t>145469</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>407.00.01_#6_ZASTRZAŁ MINI BRAMKI</t>
+          <t>4537.00.04_#8_S235</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2944,22 +2842,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>630,00</t>
+          <t>42,16</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>38193</t>
+          <t>38199</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -2988,17 +2886,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>119056</t>
+          <t>145463</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>407.00.09_#6</t>
+          <t>4550.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3008,22 +2906,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>284,00</t>
+          <t>52,68</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>38194</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3037,17 +2935,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>120003</t>
+          <t>145464</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>407.00.10</t>
+          <t>4550.00.02_#8_S235</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3057,22 +2955,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>278,00</t>
+          <t>53,94</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>38194</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3081,15 +2979,49 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>145465</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4550.00.03_#8_S235</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>38200</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -3097,21 +3029,21 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>116607</t>
+          <t>143663</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>196.00.54_#3_S235_ KOSZYKÓWKA VARIO</t>
+          <t>GM70100.00.03-A_#5_S235</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3121,22 +3053,22 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>58,65</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>38164</t>
+          <t>38200</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3165,17 +3097,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>140566</t>
+          <t>145463</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>GM7031226.00.01-180_#6</t>
+          <t>4550.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3185,22 +3117,22 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>114,12</t>
+          <t>35,12</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>38195</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3209,15 +3141,49 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>145464</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4550.00.02_#8_S235</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>35,96</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>38201</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3225,21 +3191,21 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>130909</t>
+          <t>145465</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ST_1501982_Boxen-Platte_S235_#3</t>
+          <t>4550.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3249,22 +3215,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11,90</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11,90</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>38162</t>
+          <t>38201</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3273,64 +3239,64 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>143663</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GM70100.00.03-A_#5_S235</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>19,55</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>39,10</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>38201</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>145463</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>4550.00.01_#6_S235</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>17,56</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>52,68</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>38200</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3338,7 +3304,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3352,7 +3318,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3362,7 +3328,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3372,12 +3338,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>53,94</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>38200</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -3387,7 +3353,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3401,7 +3367,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3411,7 +3377,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3421,12 +3387,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>38200</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -3436,21 +3402,21 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>143663</t>
+          <t>145468</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>GM70100.00.03-A_#5_S235</t>
+          <t>4550.00.07_#10_S235</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3460,22 +3426,22 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>19,55</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>58,65</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>38200</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -3504,17 +3470,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>118083</t>
+          <t>140927</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0603.00.01 #5</t>
+          <t>2834.00.01_#5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3524,22 +3490,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>73,65</t>
+          <t>35,84</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>38166</t>
+          <t>38203</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -3568,17 +3534,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>145244</t>
+          <t>145470</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4321.00.10_#4_S235</t>
+          <t>4550.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3588,22 +3554,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -3617,12 +3583,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>145440</t>
+          <t>145471</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4321.00.11_#4_S235</t>
+          <t>4550.00.05_#8_S235</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3642,17 +3608,17 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -3666,17 +3632,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>145441</t>
+          <t>145472</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4321.00.12_#4_S235</t>
+          <t>4550.00.06_#8_S235</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3686,22 +3652,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -3715,17 +3681,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>145442</t>
+          <t>143927</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4321.00.13_#5_S235</t>
+          <t>GM70100.00.01-2_#6_S235</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3735,22 +3701,22 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -3759,49 +3725,15 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>5</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>145443</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>4321.00.14-A_#3_S235</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>28,84</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>38176</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3809,21 +3741,21 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>145444</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4321.00.15_#3_S235</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3833,22 +3765,22 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>221,68</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -3858,21 +3790,21 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>145273</t>
+          <t>142495</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4321.00.18_#4_S235</t>
+          <t>BB1010300.00.10_#4_S235</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3882,22 +3814,22 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -3907,21 +3839,21 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>140771</t>
+          <t>142496</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9009.00.02_#8</t>
+          <t>BB1010300.00.11_#5_S235</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3931,22 +3863,22 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>24,16</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>38176</t>
+          <t>38206</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -3955,64 +3887,64 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>142494</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>BB1010300.00.13_#4_S235</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>10,28</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>38206</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>145466</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>4537.00.03_#8_S235</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>33,91</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>542,56</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>38199</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -4020,21 +3952,21 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>145469</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4537.00.04_#8_S235</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4044,22 +3976,22 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>42,16</t>
+          <t>110,84</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>38199</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4068,15 +4000,49 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>142495</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>BB1010300.00.10_#4_S235</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>3,50</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>38207</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -4084,21 +4050,21 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>129108</t>
+          <t>142496</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1335.00.01_#6</t>
+          <t>BB1010300.00.11_#5_S235</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4108,22 +4074,22 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>90,76</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4133,21 +4099,21 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>129103</t>
+          <t>142494</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1335.00.02_#6</t>
+          <t>BB1010300.00.13_#4_S235</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4157,22 +4123,22 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>33,64</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38207</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -4181,49 +4147,15 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>3</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>129104</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>1335.00.03_#8</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>15,69</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>62,76</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>38139</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4231,21 +4163,21 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>129105</t>
+          <t>143015</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1335.00.04_#8</t>
+          <t>BB1010000.00.04_#6_S235</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4255,22 +4187,22 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>15,69</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>125,52</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -4280,16 +4212,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>129102</t>
+          <t>143649</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1335.00.05_#6</t>
+          <t>BB1020521.00.05-A_#8_S235</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4309,17 +4241,17 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>20,40</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -4329,21 +4261,21 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>129106</t>
+          <t>139388</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1335.00.13_#2</t>
+          <t>BB1020521.00.13-B v2_#10_S235</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4353,22 +4285,22 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>23,04</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -4378,21 +4310,21 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>130905</t>
+          <t>143650</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1471.00.16_#5</t>
+          <t>BB1020521.00.19_#6_S235</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4402,22 +4334,22 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>80,16</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -4426,15 +4358,49 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>143652</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BB1020521.00.22-A_#3_S235</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>38209</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4442,16 +4408,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>142781</t>
+          <t>143653</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>KPL BLACH DO INDEKSU 113805</t>
+          <t>BB1020521.00.23_#6_S235</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4471,17 +4437,17 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>115,50</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>231,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>38171</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -4490,15 +4456,49 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>143654</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BB1020521.00.26_#8_S235</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>38209</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4506,21 +4506,21 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>145474</t>
+          <t>143655</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4539.00.03_#8_S235</t>
+          <t>BB1020521.00.27-A_#5_S235</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4530,22 +4530,22 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>4,80</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>77,34</t>
+          <t>19,20</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>38212</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -4554,64 +4554,64 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>145475</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>4539.00.04_#8_S235</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>58,08</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>38212</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>143015</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BB1010000.00.04_#6_S235</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>14,24</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>38215</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4619,21 +4619,21 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>145466</t>
+          <t>143011</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4537.00.03_#8_S235</t>
+          <t>BB1010500.00.01-01_#5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4643,22 +4643,22 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>33,91</t>
+          <t>25,67</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>271,28</t>
+          <t>102,68</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>38197</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -4668,21 +4668,21 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>145467</t>
+          <t>143012</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4544.00.01_#4_S235</t>
+          <t>BB1010500.00.02-01_#5</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4692,22 +4692,22 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>48,11</t>
+          <t>24,88</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>96,22</t>
+          <t>99,52</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>38197</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -4717,21 +4717,21 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>143252</t>
+          <t>144158</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>GM70701.00.08-A_Blacha</t>
+          <t>BB1010500.00.06_#5_S235</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4741,22 +4741,22 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>35,95</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>12,90</t>
+          <t>143,80</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>38197</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -4766,21 +4766,21 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>143251</t>
+          <t>143014</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>GM70701.00.09_Blacha</t>
+          <t>BB1020507.00.04_#3_S235</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4790,22 +4790,22 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>4,80</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>38197</t>
+          <t>38215</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>38213</t>
+          <t>38212</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>38213</t>
+          <t>38212</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -4947,17 +4947,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>139276</t>
+          <t>145474</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>BB1010000.00.01_#6_S235</t>
+          <t>4539.00.03_#8_S235</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4967,22 +4967,22 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>27,71</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>221,68</t>
+          <t>77,34</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>38206</t>
+          <t>38213</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -4996,17 +4996,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>142495</t>
+          <t>145475</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>BB1010300.00.10_#4_S235</t>
+          <t>4539.00.04_#8_S235</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5016,22 +5016,22 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>58,08</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>38206</t>
+          <t>38213</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -5040,49 +5040,15 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>3</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>142496</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>BB1010300.00.11_#5_S235</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Szt.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>38206</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -5090,16 +5056,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>142494</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BB1010300.00.13_#4_S235</t>
+          <t>BB1010000.00.01_#6_S235</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5119,17 +5085,17 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>110,84</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>38206</t>
+          <t>38214</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -5138,20 +5104,167 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>142495</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>BB1010300.00.10_#4_S235</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>3,50</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>38214</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>142496</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>BB1010300.00.11_#5_S235</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>38214</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>142494</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>BB1010300.00.13_#4_S235</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Szt.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>38214</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>KONIEC</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>KONIEC</t>
         </is>
